--- a/rawdata/VZ_SubstateMinimumWage_Changes.xlsx
+++ b/rawdata/VZ_SubstateMinimumWage_Changes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="158">
   <si>
     <t xml:space="preserve">statefips</t>
   </si>
@@ -91,180 +91,198 @@
     <t xml:space="preserve">CURRENT</t>
   </si>
   <si>
+    <t xml:space="preserve">California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berkeley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berkeley - CA - City Website - Minimum Wage Ordinance - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupertino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernalillo County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernalillo County - NM - Ordinance - Minimum Wage - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernalillo County - NM - City Website - Minimum Wage Poster 2015 - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernalillo County - NM - City Website - Minimum Wage Poster 2016 - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bernco.gov/boards-commissions/news.aspx?f42793dd65f54df6be448b9008a67366blogPostId=1fbad0c606c845a69067dd12dda2401d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nmrestaurants.org/minimum-wage-in-new-mexico/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago - IL - Ordinance - Minimum Wage 9680 - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Cerrito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Cerrito - CA - Ordinance - Minimum Wage - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emeryville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emeryville - CA - City Website - Minimum Wage Ordinance - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small business is defined as 55 or fewer employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson County - IA - City Website - Minimum Wage in Johnson County - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Cruces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Cruces - NM - Ordinance - Minimum Wage (Section 14) - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipped minimum wage is 40 percent of the minimum wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexington - KY - Ordinance - Minimum Wage (130) - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently undergoing preemption lawsuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Altos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.losaltosca.gov/sites/default/files/fileattachments/Economic%20Development/page/8261/2016-09-27_16-424.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small business is defined as 25 or fewer employees, and it also applies to nonprofit employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small business is defined as 25 or fewer employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles - CA - City Website - Minimum FAQ - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles County - CA - City Website - July 2015 Meeting Minutes - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small business is defined as fewer than 26 employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dinsmore.com/minimum-wage-increase-in-louisville-metro-jefferson-county/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://wfpl.org/kentucky-supreme-court-strikes-down-louisville-minimum-wage-ordinance/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomery County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomery County - MD - Ordinance - Minimum Wage (27-13) - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This wage takes effect only beginning on the employee's 91st day of employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dllr.state.md.us/labor/wages/minimumwagelawmont.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain View - CA - City Website - City Minimum Wage - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain View - CA - Ordinance - Minimum Wage - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakland - CA - City Website - Minimum Wage Law FAQ - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakland - CA - City Website - Minimum Wage 2015 - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www2.oaklandnet.com/government/o/CityAdministration/d/MinimumWage/index.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palo Alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palo Alto - CA - Ordinance - Minimum Wage (5355) - 07.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cityofpaloalto.org/civicax/filebank/documents/54996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polk County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.polkcountyiowa.gov/media/366276/min-wage-ord-317-pdf.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipped min less than state tipped min of 40% * 7.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maine</t>
   </si>
   <si>
-    <t xml:space="preserve">Bangor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangor - ME - Ordinance - Minimum Wage - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An employer may consider tips as part of the wages of a service employee towards satisfaction of the minimum wage requirement of this ordinance, but such a tip credit may not exceed 50% of the minimum hourly wage established in this ordinance. An employer who elects to use the tip credit must inform the affected employee in advance and must be able to show that the employee receives at least the minimum hourly wage when direct wages and the tip credit are combined.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berkeley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berkeley - CA - City Website - Minimum Wage Ordinance - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernalillo County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernalillo County - NM - Ordinance - Minimum Wage - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernalillo County - NM - City Website - Minimum Wage Poster 2015 - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernalillo County - NM - City Website - Minimum Wage Poster 2016 - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago - IL - Ordinance - Minimum Wage 9680 - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago - IL - City Website - Minimum Wage - 07.10.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Cerrito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Cerrito - CA - Ordinance - Minimum Wage - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emeryville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emeryville - CA - City Website - Minimum Wage Ordinance - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small business is defined as 55 or fewer employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson County - IA - City Website - Minimum Wage in Johnson County - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las Cruces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las Cruces - NM - Ordinance - Minimum Wage (Section 14) - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipped minimum wage is 40 percent of the minimum wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kentucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lexington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lexington - KY - Ordinance - Minimum Wage (130) - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently undergoing preemption lawsuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Beach - CA - City Website - Council Minutes - 07.10.2016 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small business is defined as 25 or fewer employees, and it also applies to nonprofit employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Angeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small business is defined as 25 or fewer employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Angeles - CA - City Website - Minimum FAQ - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Angeles County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Angeles County - CA - City Website - July 2015 Meeting Minutes - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small business is defined as fewer than 26 employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisville - KY - Ordinance - Minimum Wage (47014) - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montgomery County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montgomery County - MD - Ordinance - Minimum Wage (27-13) - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This wage takes effect only beginning on the employee's 91st day of employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montgomery County - MD - Article - Montgomery Council Votes to Increase Minimum Wage - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountain View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountain View - CA - City Website - City Minimum Wage - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountain View - CA - Ordinance - Minimum Wage - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oakland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oakland - CA - City Website - Minimum Wage Law FAQ - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oakland - CA - City Website - Minimum Wage 2015 - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palo Alto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palo Alto - CA - Ordinance - Minimum Wage (5355) - 07.10.2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Portland</t>
   </si>
   <si>
@@ -298,15 +316,6 @@
     <t xml:space="preserve">http://www.ci.richmond.ca.us/2615/Minimum-Wage-Ordinance</t>
   </si>
   <si>
-    <t xml:space="preserve">Sacramento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacramento - CA - Ordinance - Minimum Wage (2015-0036) - 07.10.2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small business is defined as 100 or fewer employees</t>
-  </si>
-  <si>
     <t xml:space="preserve">San Diego</t>
   </si>
   <si>
@@ -340,7 +349,7 @@
     <t xml:space="preserve">San Jose - CA - City Website - Minimum Wage 2015 Notice - 07.10.2016</t>
   </si>
   <si>
-    <t xml:space="preserve">San Jose - CA - City Website - Minimum Wage 2016 Notice - 07.10.2016</t>
+    <t xml:space="preserve">http://www.sanjoseca.gov/DocumentCenter/View/65220</t>
   </si>
   <si>
     <t xml:space="preserve">Santa Clara</t>
@@ -352,6 +361,9 @@
     <t xml:space="preserve">Applies to employees performing at least two hours or more of work per week</t>
   </si>
   <si>
+    <t xml:space="preserve">http://santaclaraca.gov/government/departments/city-manager/minimum-wage-ordinance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santa Fe</t>
   </si>
   <si>
@@ -406,6 +418,9 @@
     <t xml:space="preserve">SeaTac - WA - City Website - Minimum Wage Update 2016 - 07.10.2016</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.ci.seatac.wa.us/Modules/ShowDocument.aspx?documentid=13475</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seattle</t>
   </si>
   <si>
@@ -427,6 +442,12 @@
     <t xml:space="preserve">Tacoma - WA - City Website - Minimum Wage - 07.10.2016</t>
   </si>
   <si>
+    <t xml:space="preserve">Wapello County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://wapellocounty.org/wp-content/uploads/2016/12/Minimum-Wage-Poster-12-16.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">District of Columbia</t>
   </si>
   <si>
@@ -443,6 +464,36 @@
   </si>
   <si>
     <t xml:space="preserve">District of Columbia - State Website - Minimum Wage Poster 2014 - 01.14.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://does.dc.gov/sites/default/files/dc/sites/does/page_content/attachments/OLLE%20Minimum%20Wage%20Amendment%20Revision%20Act%20Poster%20-%20Eng.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Island &amp; Westchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://labor.ny.gov/workerprotection/laborstandards/workprot/minwage.shtm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remainder of New York State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oregon.gov/boli/WHD/OMW/Pages/Minimum-Wage-Rate-Summary.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonurban counties</t>
   </si>
 </sst>
 </file>
@@ -482,12 +533,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -524,7 +581,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -553,8 +610,32 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -574,21 +655,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:O65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C126" activeCellId="0" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="3" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="2" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="24.3674418604651"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="2" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="25.8418604651163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="12.6744186046512"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -908,94 +993,92 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>8.75</v>
+        <v>8.8</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>7.75</v>
+        <v>7.8</v>
       </c>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
       <c r="M9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>23</v>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>2017</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="I10" s="0"/>
+        <v>8.8</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>7.8</v>
+      </c>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N10" s="0"/>
-      <c r="O10" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="O10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>4.5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -1004,35 +1087,31 @@
         <v>25</v>
       </c>
       <c r="N11" s="0"/>
-      <c r="O11" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="O11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>4.88</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -1041,22 +1120,20 @@
         <v>25</v>
       </c>
       <c r="N12" s="0"/>
-      <c r="O12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="O12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>10</v>
@@ -1065,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>10</v>
+        <v>12.53</v>
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
@@ -1073,23 +1150,23 @@
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>10</v>
@@ -1098,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>11</v>
+        <v>13.75</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -1106,32 +1183,32 @@
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -1139,119 +1216,102 @@
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>12.53</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
-      <c r="M16" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>35</v>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>7</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
-      <c r="M17" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>35</v>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
-      <c r="M18" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>35</v>
       </c>
@@ -1259,34 +1319,36 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>8.65</v>
+        <v>8</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.13</v>
       </c>
-      <c r="I19" s="0"/>
+      <c r="I19" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>35</v>
       </c>
@@ -1294,29 +1356,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>8.65</v>
+        <v>8.5</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>2.13</v>
       </c>
-      <c r="I20" s="0"/>
+      <c r="I20" s="2" t="n">
+        <v>7.5</v>
+      </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
@@ -1329,16 +1393,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>8.65</v>
@@ -1351,134 +1415,130 @@
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>4.95</v>
+        <v>8.65</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>2.13</v>
       </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
       <c r="M22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N22" s="0"/>
       <c r="O22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>5.45</v>
+        <v>8.7</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>2.13</v>
       </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
       <c r="M23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="O23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>17</v>
+      <c r="A24" s="9" t="n">
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>2017</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>5.95</v>
+        <v>8.7</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>2.13</v>
       </c>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N24" s="0"/>
       <c r="O24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D25" s="3" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>7</v>
@@ -1487,33 +1547,35 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H25" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>5.45</v>
+      </c>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="O25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="9" t="n">
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D26" s="3" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>7</v>
@@ -1522,33 +1584,35 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="H26" s="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>5.95</v>
+      </c>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>6</v>
+      <c r="A27" s="9" t="n">
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>7</v>
@@ -1557,40 +1621,42 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H27" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
       <c r="M27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="0"/>
+        <v>35</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>6</v>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
@@ -1598,32 +1664,34 @@
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
       <c r="M28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="0"/>
+        <v>35</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="O28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>6</v>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
@@ -1631,32 +1699,34 @@
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
       <c r="M29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29" s="0"/>
+        <v>35</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>15</v>
+        <v>11.6</v>
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
@@ -1664,237 +1734,231 @@
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
       <c r="M30" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="H31" s="3" t="n">
         <v>12.25</v>
       </c>
+      <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
       <c r="M31" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N31" s="0"/>
-      <c r="O31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="O31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>13</v>
-      </c>
+        <v>13.6</v>
+      </c>
+      <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
       <c r="M32" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N32" s="0"/>
-      <c r="O32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="O32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="0"/>
-      <c r="H33" s="2" t="n">
-        <v>14</v>
-      </c>
+      <c r="G33" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
       <c r="L33" s="0"/>
       <c r="M33" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N33" s="0"/>
-      <c r="O33" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>7</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0"/>
-      <c r="H34" s="2" t="n">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="H34" s="0"/>
       <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
+      <c r="J34" s="3" t="n">
+        <v>12.25</v>
+      </c>
       <c r="K34" s="0"/>
       <c r="L34" s="0"/>
       <c r="M34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N34" s="0"/>
       <c r="O34" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>4.92</v>
-      </c>
+        <v>14.82</v>
+      </c>
+      <c r="H35" s="0"/>
       <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
+      <c r="J35" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="K35" s="0"/>
       <c r="L35" s="0"/>
       <c r="M35" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>48</v>
+      <c r="O35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="3" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>5.49</v>
-      </c>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
       <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
+      <c r="J36" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="K36" s="0"/>
       <c r="L36" s="0"/>
       <c r="M36" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
+      <c r="O36" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>48</v>
+      <c r="A37" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>7</v>
@@ -1902,167 +1966,161 @@
       <c r="F37" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="3" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>5.49</v>
-      </c>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
       <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
+      <c r="J37" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="K37" s="0"/>
       <c r="L37" s="0"/>
       <c r="M37" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
+      <c r="O37" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="D38" s="3" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>10.1</v>
+        <v>8.2</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>6.06</v>
+        <v>4.92</v>
       </c>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
       <c r="L38" s="0"/>
       <c r="M38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>50</v>
+      <c r="A39" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>8.4</v>
+        <v>9.15</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>3.36</v>
+        <v>5.49</v>
       </c>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
       <c r="L39" s="0"/>
       <c r="M39" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N39" s="0"/>
-      <c r="O39" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>50</v>
+      <c r="O39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>8.4</v>
+        <v>10.1</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>3.36</v>
+        <v>6.06</v>
       </c>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
       <c r="L40" s="0"/>
       <c r="M40" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N40" s="0"/>
-      <c r="O40" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>50</v>
+      <c r="O40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>2017</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>9.2</v>
+        <v>10.1</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>3.68</v>
+        <v>6.06</v>
       </c>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
       <c r="L41" s="0"/>
       <c r="M41" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N41" s="0"/>
-      <c r="O41" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="O41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -2071,11 +2129,11 @@
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>50</v>
+      <c r="C42" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E42" s="3" t="n">
         <v>1</v>
@@ -2084,105 +2142,109 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>10.1</v>
+        <v>8.4</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>4.04</v>
+        <v>3.36</v>
       </c>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
       <c r="L42" s="0"/>
       <c r="M42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N42" s="0"/>
       <c r="O42" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
-        <v>21</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="H43" s="0"/>
+        <v>9.2</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>3.68</v>
+      </c>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
       <c r="L43" s="0"/>
       <c r="M43" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N43" s="0"/>
       <c r="O43" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
-        <v>21</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="H44" s="0"/>
+        <v>10.1</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>4.04</v>
+      </c>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
       <c r="L44" s="0"/>
       <c r="M44" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N44" s="0"/>
       <c r="O44" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="n">
         <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="D45" s="3" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>7</v>
@@ -2191,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>10.1</v>
+        <v>8.2</v>
       </c>
       <c r="H45" s="0"/>
       <c r="I45" s="0"/>
@@ -2199,34 +2261,34 @@
       <c r="K45" s="0"/>
       <c r="L45" s="0"/>
       <c r="M45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N45" s="0"/>
       <c r="O45" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>6</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="n">
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D46" s="3" t="n">
         <v>2017</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>10.5</v>
+        <v>9.15</v>
       </c>
       <c r="H46" s="0"/>
       <c r="I46" s="0"/>
@@ -2234,60 +2296,60 @@
       <c r="K46" s="0"/>
       <c r="L46" s="0"/>
       <c r="M46" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N46" s="0"/>
-      <c r="O46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>6</v>
+      <c r="O46" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="n">
+        <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D47" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>12</v>
+        <v>10.1</v>
       </c>
       <c r="H47" s="0"/>
       <c r="I47" s="0"/>
-      <c r="J47" s="3" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J47" s="0"/>
       <c r="K47" s="0"/>
       <c r="L47" s="0"/>
       <c r="M47" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N47" s="0"/>
       <c r="O47" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>1</v>
@@ -2295,36 +2357,34 @@
       <c r="F48" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>13</v>
+      <c r="G48" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="H48" s="0"/>
       <c r="I48" s="0"/>
-      <c r="J48" s="3" t="n">
-        <v>12</v>
-      </c>
+      <c r="J48" s="3"/>
       <c r="K48" s="0"/>
       <c r="L48" s="0"/>
       <c r="M48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N48" s="0"/>
       <c r="O48" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E49" s="3" t="n">
         <v>1</v>
@@ -2332,43 +2392,43 @@
       <c r="F49" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="0"/>
+      <c r="G49" s="0" t="n">
+        <v>13.5</v>
+      </c>
       <c r="H49" s="0"/>
       <c r="I49" s="0"/>
-      <c r="J49" s="3" t="n">
-        <v>13</v>
-      </c>
+      <c r="J49" s="3"/>
       <c r="K49" s="0"/>
       <c r="L49" s="0"/>
       <c r="M49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N49" s="0"/>
       <c r="O49" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="3" t="n">
-        <v>10.5</v>
+      <c r="G50" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="H50" s="0"/>
       <c r="I50" s="0"/>
@@ -2376,25 +2436,25 @@
       <c r="K50" s="0"/>
       <c r="L50" s="0"/>
       <c r="M50" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N50" s="0"/>
       <c r="O50" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>7</v>
@@ -2402,34 +2462,34 @@
       <c r="F51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G51" s="2" t="n">
-        <v>12</v>
+      <c r="G51" s="3" t="n">
+        <v>10.5</v>
       </c>
       <c r="H51" s="0"/>
       <c r="I51" s="0"/>
-      <c r="J51" s="3" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J51" s="3"/>
       <c r="K51" s="0"/>
       <c r="L51" s="0"/>
       <c r="M51" s="2" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="O51" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E52" s="3" t="n">
         <v>7</v>
@@ -2438,33 +2498,33 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>13.25</v>
+        <v>12</v>
       </c>
       <c r="H52" s="0"/>
       <c r="I52" s="0"/>
-      <c r="J52" s="2" t="n">
-        <v>12</v>
+      <c r="J52" s="3" t="n">
+        <v>10.5</v>
       </c>
       <c r="K52" s="0"/>
       <c r="L52" s="0"/>
       <c r="M52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N52" s="0"/>
       <c r="O52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E53" s="3" t="n">
         <v>7</v>
@@ -2473,33 +2533,33 @@
         <v>1</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>14.25</v>
+        <v>13.25</v>
       </c>
       <c r="H53" s="0"/>
       <c r="I53" s="0"/>
       <c r="J53" s="2" t="n">
-        <v>13.25</v>
+        <v>12</v>
       </c>
       <c r="K53" s="0"/>
       <c r="L53" s="0"/>
       <c r="M53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N53" s="0"/>
       <c r="O53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E54" s="3" t="n">
         <v>7</v>
@@ -2508,33 +2568,33 @@
         <v>1</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="H54" s="0"/>
       <c r="I54" s="0"/>
       <c r="J54" s="2" t="n">
-        <v>14.25</v>
+        <v>13.25</v>
       </c>
       <c r="K54" s="0"/>
       <c r="L54" s="0"/>
       <c r="M54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N54" s="0"/>
       <c r="O54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E55" s="3" t="n">
         <v>7</v>
@@ -2542,32 +2602,34 @@
       <c r="F55" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G55" s="0"/>
+      <c r="G55" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="H55" s="0"/>
       <c r="I55" s="0"/>
       <c r="J55" s="2" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="K55" s="0"/>
       <c r="L55" s="0"/>
       <c r="M55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N55" s="0"/>
       <c r="O55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E56" s="3" t="n">
         <v>7</v>
@@ -2575,32 +2637,32 @@
       <c r="F56" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G56" s="3" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="G56" s="0"/>
       <c r="H56" s="0"/>
       <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
+      <c r="J56" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="K56" s="0"/>
       <c r="L56" s="0"/>
       <c r="M56" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N56" s="0"/>
       <c r="O56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E57" s="3" t="n">
         <v>7</v>
@@ -2609,35 +2671,31 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="H57" s="0"/>
       <c r="I57" s="0"/>
-      <c r="J57" s="3" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J57" s="0"/>
       <c r="K57" s="0"/>
       <c r="L57" s="0"/>
       <c r="M57" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N57" s="0"/>
-      <c r="O57" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="O57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E58" s="3" t="n">
         <v>7</v>
@@ -2646,35 +2704,35 @@
         <v>1</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>13.25</v>
+        <v>12</v>
       </c>
       <c r="H58" s="0"/>
       <c r="I58" s="0"/>
       <c r="J58" s="3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="K58" s="0"/>
       <c r="L58" s="0"/>
       <c r="M58" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N58" s="0"/>
       <c r="O58" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E59" s="3" t="n">
         <v>7</v>
@@ -2683,35 +2741,35 @@
         <v>1</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>14.25</v>
+        <v>13.25</v>
       </c>
       <c r="H59" s="0"/>
       <c r="I59" s="0"/>
       <c r="J59" s="3" t="n">
-        <v>13.25</v>
+        <v>12</v>
       </c>
       <c r="K59" s="0"/>
       <c r="L59" s="0"/>
       <c r="M59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N59" s="0"/>
       <c r="O59" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E60" s="3" t="n">
         <v>7</v>
@@ -2720,35 +2778,35 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="H60" s="0"/>
       <c r="I60" s="0"/>
       <c r="J60" s="3" t="n">
-        <v>14</v>
+        <v>13.25</v>
       </c>
       <c r="K60" s="0"/>
       <c r="L60" s="0"/>
       <c r="M60" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N60" s="0"/>
       <c r="O60" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E61" s="3" t="n">
         <v>7</v>
@@ -2756,34 +2814,36 @@
       <c r="F61" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G61" s="0"/>
+      <c r="G61" s="3" t="n">
+        <v>15</v>
+      </c>
       <c r="H61" s="0"/>
       <c r="I61" s="0"/>
       <c r="J61" s="3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K61" s="0"/>
       <c r="L61" s="0"/>
       <c r="M61" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N61" s="0"/>
       <c r="O61" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
-        <v>21</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="E62" s="3" t="n">
         <v>7</v>
@@ -2791,32 +2851,34 @@
       <c r="F62" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G62" s="3" t="n">
-        <v>8.1</v>
-      </c>
+      <c r="G62" s="0"/>
       <c r="H62" s="0"/>
       <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
+      <c r="J62" s="3" t="n">
+        <v>15</v>
+      </c>
       <c r="K62" s="0"/>
       <c r="L62" s="0"/>
       <c r="M62" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N62" s="0"/>
-      <c r="O62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O62" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>21</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E63" s="3" t="n">
         <v>7</v>
@@ -2825,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>9.15</v>
+        <v>7.75</v>
       </c>
       <c r="H63" s="0"/>
       <c r="I63" s="0"/>
@@ -2833,25 +2895,23 @@
       <c r="K63" s="0"/>
       <c r="L63" s="0"/>
       <c r="M63" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N63" s="0"/>
-      <c r="O63" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>21</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E64" s="3" t="n">
         <v>7</v>
@@ -2860,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>10.1</v>
+        <v>8.25</v>
       </c>
       <c r="H64" s="0"/>
       <c r="I64" s="0"/>
@@ -2868,34 +2928,31 @@
       <c r="K64" s="0"/>
       <c r="L64" s="0"/>
       <c r="M64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N64" s="0"/>
-      <c r="O64" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>69</v>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E65" s="3" t="n">
         <v>10</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>8.4</v>
+        <v>7.25</v>
       </c>
       <c r="H65" s="0"/>
       <c r="I65" s="0"/>
@@ -2903,34 +2960,31 @@
       <c r="K65" s="0"/>
       <c r="L65" s="0"/>
       <c r="M65" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N65" s="0"/>
-      <c r="O65" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>69</v>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F66" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>9.55</v>
+        <v>7.25</v>
       </c>
       <c r="H66" s="0"/>
       <c r="I66" s="0"/>
@@ -2938,34 +2992,31 @@
       <c r="K66" s="0"/>
       <c r="L66" s="0"/>
       <c r="M66" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="N66" s="0"/>
-      <c r="O66" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F67" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="3" t="n">
-        <v>9.55</v>
+        <v>8.4</v>
       </c>
       <c r="H67" s="0"/>
       <c r="I67" s="0"/>
@@ -2973,7 +3024,7 @@
       <c r="K67" s="0"/>
       <c r="L67" s="0"/>
       <c r="M67" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="N67" s="0"/>
       <c r="O67" s="2" t="s">
@@ -2984,14 +3035,14 @@
       <c r="A68" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>10</v>
@@ -3000,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="3" t="n">
-        <v>10.75</v>
+        <v>9.55</v>
       </c>
       <c r="H68" s="0"/>
       <c r="I68" s="0"/>
@@ -3015,51 +3066,55 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F69" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G69" s="3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="H69" s="0"/>
+        <v>10.75</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="I69" s="0"/>
       <c r="J69" s="0"/>
       <c r="K69" s="0"/>
       <c r="L69" s="0"/>
       <c r="M69" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N69" s="0"/>
-      <c r="O69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>73</v>
+      <c r="O69" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E70" s="3" t="n">
         <v>7</v>
@@ -3068,15 +3123,17 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H70" s="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="I70" s="0"/>
       <c r="J70" s="0"/>
       <c r="K70" s="0"/>
       <c r="L70" s="0"/>
       <c r="M70" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N70" s="0"/>
       <c r="O70" s="0"/>
@@ -3086,22 +3143,22 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F71" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G71" s="3" t="n">
-        <v>11</v>
+        <v>10.3</v>
       </c>
       <c r="H71" s="0"/>
       <c r="I71" s="0"/>
@@ -3109,26 +3166,26 @@
       <c r="K71" s="0"/>
       <c r="L71" s="0"/>
       <c r="M71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N71" s="0"/>
       <c r="O71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F72" s="3" t="n">
         <v>1</v>
@@ -3142,85 +3199,85 @@
       <c r="K72" s="0"/>
       <c r="L72" s="0"/>
       <c r="M72" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="N72" s="0"/>
       <c r="O72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="7" t="s">
+    <row r="73" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="3" t="n">
+      <c r="D73" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="E73" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="n">
+      <c r="E73" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="H73" s="0"/>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-      <c r="K73" s="0"/>
-      <c r="L73" s="0"/>
-      <c r="M73" s="2" t="s">
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="N73" s="0"/>
-      <c r="O73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="3" t="n">
+      <c r="D74" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="E74" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3" t="n">
+      <c r="E74" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="H74" s="0"/>
-      <c r="I74" s="0"/>
-      <c r="J74" s="0"/>
-      <c r="K74" s="0"/>
-      <c r="L74" s="0"/>
-      <c r="M74" s="2" t="s">
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="N74" s="0"/>
-      <c r="O74" s="0"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="3" t="n">
@@ -3251,9 +3308,9 @@
         <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D76" s="3" t="n">
@@ -3279,27 +3336,27 @@
       <c r="N76" s="0"/>
       <c r="O76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F77" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G77" s="3" t="n">
-        <v>12.55</v>
+        <v>12.86</v>
       </c>
       <c r="H77" s="0"/>
       <c r="I77" s="0"/>
@@ -3307,32 +3364,32 @@
       <c r="K77" s="0"/>
       <c r="L77" s="0"/>
       <c r="M77" s="2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="N77" s="0"/>
       <c r="O77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F78" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G78" s="3" t="n">
-        <v>11</v>
+        <v>12.86</v>
       </c>
       <c r="H78" s="0"/>
       <c r="I78" s="0"/>
@@ -3340,7 +3397,7 @@
       <c r="K78" s="0"/>
       <c r="L78" s="0"/>
       <c r="M78" s="2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N78" s="0"/>
       <c r="O78" s="0"/>
@@ -3350,16 +3407,16 @@
         <v>6</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D79" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F79" s="3" t="n">
         <v>1</v>
@@ -3373,23 +3430,23 @@
       <c r="K79" s="0"/>
       <c r="L79" s="0"/>
       <c r="M79" s="2" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="N79" s="0"/>
       <c r="O79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>23</v>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>81</v>
+      <c r="C80" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E80" s="3" t="n">
         <v>1</v>
@@ -3398,76 +3455,64 @@
         <v>1</v>
       </c>
       <c r="G80" s="3" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H80" s="3" t="n">
-        <v>3.75</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H80" s="0"/>
       <c r="I80" s="0"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="0"/>
       <c r="K80" s="0"/>
       <c r="L80" s="0"/>
       <c r="M80" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="N80" s="0"/>
+      <c r="O80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>23</v>
+      <c r="A81" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>81</v>
+      <c r="C81" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F81" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G81" s="3" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H81" s="3" t="n">
-        <v>3.75</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="H81" s="0"/>
       <c r="I81" s="0"/>
-      <c r="J81" s="3"/>
+      <c r="J81" s="0"/>
       <c r="K81" s="0"/>
       <c r="L81" s="0"/>
       <c r="M81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>23</v>
+        <v>82</v>
+      </c>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>81</v>
+      <c r="C82" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E82" s="3" t="n">
         <v>1</v>
@@ -3476,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="3" t="n">
-        <v>10.68</v>
+        <v>15</v>
       </c>
       <c r="H82" s="0"/>
       <c r="I82" s="0"/>
@@ -3484,234 +3529,252 @@
       <c r="K82" s="0"/>
       <c r="L82" s="0"/>
       <c r="M82" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N82" s="0"/>
       <c r="O82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>87</v>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F83" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G83" s="3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H83" s="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <f aca="false">G83-5</f>
+        <v>3.75</v>
+      </c>
       <c r="I83" s="0"/>
       <c r="J83" s="0"/>
       <c r="K83" s="0"/>
       <c r="L83" s="0"/>
       <c r="M83" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N83" s="0"/>
-      <c r="O83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>87</v>
+      <c r="O83" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F84" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G84" s="3" t="n">
-        <v>9.55</v>
-      </c>
-      <c r="H84" s="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <f aca="false">G84-5</f>
+        <v>4.75</v>
+      </c>
       <c r="I84" s="0"/>
       <c r="J84" s="0"/>
       <c r="K84" s="0"/>
       <c r="L84" s="0"/>
       <c r="M84" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N84" s="0"/>
       <c r="O84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>87</v>
+      <c r="A85" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F85" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G85" s="3" t="n">
-        <v>9.55</v>
-      </c>
-      <c r="H85" s="0"/>
+        <v>10.75</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <f aca="false">G85-5</f>
+        <v>5.75</v>
+      </c>
       <c r="I85" s="0"/>
       <c r="J85" s="0"/>
       <c r="K85" s="0"/>
       <c r="L85" s="0"/>
       <c r="M85" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="N85" s="0"/>
       <c r="O85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F86" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G86" s="3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="H86" s="0"/>
+        <v>10.1</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>3.75</v>
+      </c>
       <c r="I86" s="0"/>
-      <c r="J86" s="0"/>
+      <c r="J86" s="3"/>
       <c r="K86" s="0"/>
       <c r="L86" s="0"/>
       <c r="M86" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N86" s="0"/>
-      <c r="O86" s="0"/>
+      <c r="N86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D87" s="3" t="n">
         <v>2017</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F87" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G87" s="3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="H87" s="0"/>
+        <v>10.68</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="I87" s="0"/>
       <c r="J87" s="0"/>
       <c r="K87" s="0"/>
       <c r="L87" s="0"/>
       <c r="M87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N87" s="0"/>
+        <v>91</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="O87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>6</v>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="n">
+        <v>23</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G88" s="3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H88" s="0"/>
+        <v>10.68</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="I88" s="0"/>
       <c r="J88" s="0"/>
       <c r="K88" s="0"/>
       <c r="L88" s="0"/>
       <c r="M88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="O88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>89</v>
+        <v>24</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F89" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G89" s="3" t="n">
-        <v>11.52</v>
+        <v>8.4</v>
       </c>
       <c r="H89" s="0"/>
       <c r="I89" s="0"/>
@@ -3719,34 +3782,32 @@
       <c r="K89" s="0"/>
       <c r="L89" s="0"/>
       <c r="M89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N89" s="0"/>
       <c r="O89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>89</v>
+        <v>24</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F90" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G90" s="3" t="n">
-        <v>11.52</v>
+        <v>9.55</v>
       </c>
       <c r="H90" s="0"/>
       <c r="I90" s="0"/>
@@ -3754,34 +3815,32 @@
       <c r="K90" s="0"/>
       <c r="L90" s="0"/>
       <c r="M90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N90" s="0"/>
       <c r="O90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>89</v>
+        <v>24</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E91" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F91" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G91" s="3" t="n">
-        <v>12.3</v>
+        <v>9.55</v>
       </c>
       <c r="H91" s="0"/>
       <c r="I91" s="0"/>
@@ -3789,34 +3848,32 @@
       <c r="K91" s="0"/>
       <c r="L91" s="0"/>
       <c r="M91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N91" s="0"/>
       <c r="O91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>89</v>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F92" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G92" s="3" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="H92" s="0"/>
       <c r="I92" s="0"/>
@@ -3824,34 +3881,32 @@
       <c r="K92" s="0"/>
       <c r="L92" s="0"/>
       <c r="M92" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N92" s="0"/>
       <c r="O92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>92</v>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D93" s="3" t="n">
         <v>2017</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G93" s="3" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="H93" s="0"/>
       <c r="I93" s="0"/>
@@ -3859,7 +3914,7 @@
       <c r="K93" s="0"/>
       <c r="L93" s="0"/>
       <c r="M93" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N93" s="0"/>
       <c r="O93" s="0"/>
@@ -3869,13 +3924,13 @@
         <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E94" s="3" t="n">
         <v>1</v>
@@ -3884,35 +3939,33 @@
         <v>1</v>
       </c>
       <c r="G94" s="3" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="H94" s="0"/>
       <c r="I94" s="0"/>
-      <c r="J94" s="3" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J94" s="0"/>
       <c r="K94" s="0"/>
       <c r="L94" s="0"/>
       <c r="M94" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N94" s="0"/>
-      <c r="O94" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E95" s="3" t="n">
         <v>1</v>
@@ -3921,72 +3974,68 @@
         <v>1</v>
       </c>
       <c r="G95" s="3" t="n">
-        <v>11.75</v>
+        <v>11.52</v>
       </c>
       <c r="H95" s="0"/>
       <c r="I95" s="0"/>
-      <c r="J95" s="3" t="n">
-        <v>11</v>
-      </c>
+      <c r="J95" s="0"/>
       <c r="K95" s="0"/>
       <c r="L95" s="0"/>
       <c r="M95" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N95" s="0"/>
-      <c r="O95" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F96" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G96" s="3" t="n">
-        <v>12.5</v>
+        <v>11.52</v>
       </c>
       <c r="H96" s="0"/>
       <c r="I96" s="0"/>
-      <c r="J96" s="3" t="n">
-        <v>11.75</v>
-      </c>
+      <c r="J96" s="0"/>
       <c r="K96" s="0"/>
       <c r="L96" s="0"/>
       <c r="M96" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N96" s="0"/>
-      <c r="O96" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E97" s="3" t="n">
         <v>1</v>
@@ -3994,34 +4043,34 @@
       <c r="F97" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G97" s="0"/>
+      <c r="G97" s="3" t="n">
+        <v>12.3</v>
+      </c>
       <c r="H97" s="0"/>
       <c r="I97" s="0"/>
-      <c r="J97" s="3" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J97" s="0"/>
       <c r="K97" s="0"/>
       <c r="L97" s="0"/>
       <c r="M97" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N97" s="0"/>
-      <c r="O97" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E98" s="3" t="n">
         <v>1</v>
@@ -4030,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="3" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="H98" s="0"/>
       <c r="I98" s="0"/>
@@ -4040,7 +4089,9 @@
       <c r="M98" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N98" s="0"/>
+      <c r="N98" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="O98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,13 +4099,13 @@
         <v>6</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>95</v>
+        <v>23</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E99" s="3" t="n">
         <v>1</v>
@@ -4063,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="3" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="H99" s="0"/>
       <c r="I99" s="0"/>
@@ -4071,26 +4122,26 @@
       <c r="K99" s="0"/>
       <c r="L99" s="0"/>
       <c r="M99" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N99" s="0"/>
       <c r="O99" s="0"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>95</v>
+        <v>23</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D100" s="3" t="n">
         <v>2016</v>
       </c>
       <c r="E100" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F100" s="3" t="n">
         <v>1</v>
@@ -4104,7 +4155,7 @@
       <c r="K100" s="0"/>
       <c r="L100" s="0"/>
       <c r="M100" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N100" s="0"/>
       <c r="O100" s="0"/>
@@ -4114,10 +4165,10 @@
         <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>95</v>
+        <v>23</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D101" s="3" t="n">
         <v>2017</v>
@@ -4137,32 +4188,32 @@
       <c r="K101" s="0"/>
       <c r="L101" s="0"/>
       <c r="M101" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N101" s="0"/>
       <c r="O101" s="0"/>
     </row>
-    <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>97</v>
+        <v>23</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G102" s="3" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="H102" s="0"/>
       <c r="I102" s="0"/>
@@ -4170,7 +4221,7 @@
       <c r="K102" s="0"/>
       <c r="L102" s="0"/>
       <c r="M102" s="2" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N102" s="0"/>
       <c r="O102" s="0"/>
@@ -4180,22 +4231,22 @@
         <v>6</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G103" s="3" t="n">
-        <v>8.62</v>
+        <v>8.5</v>
       </c>
       <c r="H103" s="0"/>
       <c r="I103" s="0"/>
@@ -4203,7 +4254,7 @@
       <c r="K103" s="0"/>
       <c r="L103" s="0"/>
       <c r="M103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N103" s="0"/>
       <c r="O103" s="0"/>
@@ -4213,13 +4264,13 @@
         <v>6</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E104" s="3" t="n">
         <v>1</v>
@@ -4228,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="3" t="n">
-        <v>8.82</v>
+        <v>8.62</v>
       </c>
       <c r="H104" s="0"/>
       <c r="I104" s="0"/>
@@ -4236,25 +4287,23 @@
       <c r="K104" s="0"/>
       <c r="L104" s="0"/>
       <c r="M104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N104" s="0"/>
-      <c r="O104" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="O104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E105" s="3" t="n">
         <v>1</v>
@@ -4263,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="3" t="n">
-        <v>9.14</v>
+        <v>8.82</v>
       </c>
       <c r="H105" s="0"/>
       <c r="I105" s="0"/>
@@ -4271,11 +4320,11 @@
       <c r="K105" s="0"/>
       <c r="L105" s="0"/>
       <c r="M105" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N105" s="0"/>
       <c r="O105" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,13 +4332,13 @@
         <v>6</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E106" s="3" t="n">
         <v>1</v>
@@ -4298,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="3" t="n">
-        <v>9.36</v>
+        <v>9.14</v>
       </c>
       <c r="H106" s="0"/>
       <c r="I106" s="0"/>
@@ -4306,11 +4355,11 @@
       <c r="K106" s="0"/>
       <c r="L106" s="0"/>
       <c r="M106" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N106" s="0"/>
       <c r="O106" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,13 +4367,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E107" s="3" t="n">
         <v>1</v>
@@ -4333,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="3" t="n">
-        <v>9.79</v>
+        <v>9.36</v>
       </c>
       <c r="H107" s="0"/>
       <c r="I107" s="0"/>
@@ -4341,11 +4390,11 @@
       <c r="K107" s="0"/>
       <c r="L107" s="0"/>
       <c r="M107" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N107" s="0"/>
       <c r="O107" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,13 +4402,13 @@
         <v>6</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E108" s="3" t="n">
         <v>1</v>
@@ -4376,11 +4425,11 @@
       <c r="K108" s="0"/>
       <c r="L108" s="0"/>
       <c r="M108" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N108" s="0"/>
       <c r="O108" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,13 +4437,13 @@
         <v>6</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E109" s="3" t="n">
         <v>1</v>
@@ -4403,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="3" t="n">
-        <v>9.92</v>
+        <v>9.79</v>
       </c>
       <c r="H109" s="0"/>
       <c r="I109" s="0"/>
@@ -4411,11 +4460,11 @@
       <c r="K109" s="0"/>
       <c r="L109" s="0"/>
       <c r="M109" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N109" s="0"/>
       <c r="O109" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,13 +4472,13 @@
         <v>6</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E110" s="3" t="n">
         <v>1</v>
@@ -4438,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="3" t="n">
-        <v>10.24</v>
+        <v>9.92</v>
       </c>
       <c r="H110" s="0"/>
       <c r="I110" s="0"/>
@@ -4446,11 +4495,11 @@
       <c r="K110" s="0"/>
       <c r="L110" s="0"/>
       <c r="M110" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N110" s="0"/>
       <c r="O110" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,13 +4507,13 @@
         <v>6</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E111" s="3" t="n">
         <v>1</v>
@@ -4473,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="3" t="n">
-        <v>10.55</v>
+        <v>10.24</v>
       </c>
       <c r="H111" s="0"/>
       <c r="I111" s="0"/>
@@ -4481,11 +4530,11 @@
       <c r="K111" s="0"/>
       <c r="L111" s="0"/>
       <c r="M111" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N111" s="0"/>
       <c r="O111" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,13 +4542,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E112" s="3" t="n">
         <v>1</v>
@@ -4508,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="3" t="n">
-        <v>10.74</v>
+        <v>10.55</v>
       </c>
       <c r="H112" s="0"/>
       <c r="I112" s="0"/>
@@ -4516,11 +4565,11 @@
       <c r="K112" s="0"/>
       <c r="L112" s="0"/>
       <c r="M112" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N112" s="0"/>
       <c r="O112" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,13 +4577,13 @@
         <v>6</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E113" s="3" t="n">
         <v>1</v>
@@ -4543,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="3" t="n">
-        <v>11.05</v>
+        <v>10.74</v>
       </c>
       <c r="H113" s="0"/>
       <c r="I113" s="0"/>
@@ -4551,32 +4600,34 @@
       <c r="K113" s="0"/>
       <c r="L113" s="0"/>
       <c r="M113" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N113" s="0"/>
-      <c r="O113" s="0"/>
+      <c r="O113" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D114" s="3" t="n">
         <v>2015</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F114" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G114" s="3" t="n">
-        <v>12.25</v>
+        <v>11.05</v>
       </c>
       <c r="H114" s="0"/>
       <c r="I114" s="0"/>
@@ -4584,7 +4635,7 @@
       <c r="K114" s="0"/>
       <c r="L114" s="0"/>
       <c r="M114" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N114" s="0"/>
       <c r="O114" s="0"/>
@@ -4594,22 +4645,22 @@
         <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F115" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G115" s="3" t="n">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="H115" s="0"/>
       <c r="I115" s="0"/>
@@ -4617,23 +4668,23 @@
       <c r="K115" s="0"/>
       <c r="L115" s="0"/>
       <c r="M115" s="2" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="N115" s="0"/>
       <c r="O115" s="0"/>
     </row>
-    <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E116" s="3" t="n">
         <v>7</v>
@@ -4642,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H116" s="0"/>
       <c r="I116" s="0"/>
@@ -4650,23 +4701,23 @@
       <c r="K116" s="0"/>
       <c r="L116" s="0"/>
       <c r="M116" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N116" s="0"/>
       <c r="O116" s="0"/>
     </row>
-    <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E117" s="3" t="n">
         <v>7</v>
@@ -4675,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117" s="0"/>
       <c r="I117" s="0"/>
@@ -4683,32 +4734,32 @@
       <c r="K117" s="0"/>
       <c r="L117" s="0"/>
       <c r="M117" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N117" s="0"/>
       <c r="O117" s="0"/>
     </row>
-    <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G118" s="3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H118" s="0"/>
       <c r="I118" s="0"/>
@@ -4726,22 +4777,22 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G119" s="3" t="n">
-        <v>10.15</v>
+        <v>10</v>
       </c>
       <c r="H119" s="0"/>
       <c r="I119" s="0"/>
@@ -4749,7 +4800,7 @@
       <c r="K119" s="0"/>
       <c r="L119" s="0"/>
       <c r="M119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N119" s="0"/>
       <c r="O119" s="0"/>
@@ -4759,13 +4810,13 @@
         <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E120" s="3" t="n">
         <v>1</v>
@@ -4774,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="3" t="n">
-        <v>10.3</v>
+        <v>10.15</v>
       </c>
       <c r="H120" s="0"/>
       <c r="I120" s="0"/>
@@ -4782,7 +4833,7 @@
       <c r="K120" s="0"/>
       <c r="L120" s="0"/>
       <c r="M120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N120" s="0"/>
       <c r="O120" s="0"/>
@@ -4792,13 +4843,13 @@
         <v>6</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E121" s="3" t="n">
         <v>1</v>
@@ -4815,32 +4866,32 @@
       <c r="K121" s="0"/>
       <c r="L121" s="0"/>
       <c r="M121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N121" s="0"/>
       <c r="O121" s="0"/>
     </row>
-    <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E122" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G122" s="3" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="H122" s="0"/>
       <c r="I122" s="0"/>
@@ -4848,32 +4899,32 @@
       <c r="K122" s="0"/>
       <c r="L122" s="0"/>
       <c r="M122" s="2" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="N122" s="0"/>
       <c r="O122" s="0"/>
     </row>
-    <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E123" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F123" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G123" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H123" s="0"/>
       <c r="I123" s="0"/>
@@ -4881,34 +4932,32 @@
       <c r="K123" s="0"/>
       <c r="L123" s="0"/>
       <c r="M123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N123" s="0"/>
-      <c r="O123" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="O123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F124" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G124" s="3" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="H124" s="0"/>
       <c r="I124" s="0"/>
@@ -4916,32 +4965,32 @@
       <c r="K124" s="0"/>
       <c r="L124" s="0"/>
       <c r="M124" s="2" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="N124" s="0"/>
       <c r="O124" s="0"/>
     </row>
-    <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6" t="n">
-        <v>35</v>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3" t="n">
         <v>15</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D125" s="3" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E125" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" s="3" t="n">
-        <v>8.5</v>
       </c>
       <c r="H125" s="0"/>
       <c r="I125" s="0"/>
@@ -4949,23 +4998,23 @@
       <c r="K125" s="0"/>
       <c r="L125" s="0"/>
       <c r="M125" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N125" s="0"/>
       <c r="O125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6" t="n">
-        <v>35</v>
+      <c r="A126" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E126" s="3" t="n">
         <v>1</v>
@@ -4974,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="H126" s="0"/>
       <c r="I126" s="0"/>
@@ -4985,29 +5034,31 @@
         <v>111</v>
       </c>
       <c r="N126" s="0"/>
-      <c r="O126" s="0"/>
-    </row>
-    <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6" t="n">
-        <v>35</v>
+      <c r="O126" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E127" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F127" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G127" s="3" t="n">
-        <v>10.29</v>
+        <v>11.1</v>
       </c>
       <c r="H127" s="0"/>
       <c r="I127" s="0"/>
@@ -5015,32 +5066,32 @@
       <c r="K127" s="0"/>
       <c r="L127" s="0"/>
       <c r="M127" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N127" s="0"/>
       <c r="O127" s="0"/>
     </row>
-    <row r="128" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6" t="n">
-        <v>35</v>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E128" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F128" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G128" s="3" t="n">
-        <v>10.51</v>
+        <v>11.1</v>
       </c>
       <c r="H128" s="0"/>
       <c r="I128" s="0"/>
@@ -5048,7 +5099,7 @@
       <c r="K128" s="0"/>
       <c r="L128" s="0"/>
       <c r="M128" s="2" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="N128" s="0"/>
       <c r="O128" s="0"/>
@@ -5061,19 +5112,19 @@
         <v>15</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F129" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G129" s="3" t="n">
-        <v>10.66</v>
+        <v>8.5</v>
       </c>
       <c r="H129" s="0"/>
       <c r="I129" s="0"/>
@@ -5081,7 +5132,7 @@
       <c r="K129" s="0"/>
       <c r="L129" s="0"/>
       <c r="M129" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N129" s="0"/>
       <c r="O129" s="0"/>
@@ -5094,19 +5145,19 @@
         <v>15</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="E130" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F130" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G130" s="3" t="n">
-        <v>10.84</v>
+        <v>9.5</v>
       </c>
       <c r="H130" s="0"/>
       <c r="I130" s="0"/>
@@ -5127,10 +5178,10 @@
         <v>15</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E131" s="3" t="n">
         <v>3</v>
@@ -5139,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="3" t="n">
-        <v>10.91</v>
+        <v>10.29</v>
       </c>
       <c r="H131" s="0"/>
       <c r="I131" s="0"/>
@@ -5160,19 +5211,19 @@
         <v>15</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F132" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="n">
-        <v>10.91</v>
+        <v>10.51</v>
       </c>
       <c r="H132" s="0"/>
       <c r="I132" s="0"/>
@@ -5180,34 +5231,34 @@
       <c r="K132" s="0"/>
       <c r="L132" s="0"/>
       <c r="M132" s="2" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="N132" s="0"/>
       <c r="O132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="6" t="n">
         <v>35</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>117</v>
+      <c r="C133" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D133" s="3" t="n">
         <v>2014</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F133" s="3" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G133" s="3" t="n">
         <v>10.66</v>
       </c>
-      <c r="H133" s="3"/>
+      <c r="H133" s="0"/>
       <c r="I133" s="0"/>
       <c r="J133" s="0"/>
       <c r="K133" s="0"/>
@@ -5215,20 +5266,18 @@
       <c r="M133" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N133" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="N133" s="0"/>
       <c r="O133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="6" t="n">
         <v>35</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>117</v>
+      <c r="C134" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D134" s="3" t="n">
         <v>2015</v>
@@ -5242,30 +5291,26 @@
       <c r="G134" s="3" t="n">
         <v>10.84</v>
       </c>
-      <c r="H134" s="3" t="n">
-        <v>3.25</v>
-      </c>
+      <c r="H134" s="0"/>
       <c r="I134" s="0"/>
       <c r="J134" s="0"/>
       <c r="K134" s="0"/>
       <c r="L134" s="0"/>
       <c r="M134" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N134" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="N134" s="0"/>
       <c r="O134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="6" t="n">
         <v>35</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="7" t="s">
-        <v>117</v>
+      <c r="C135" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D135" s="3" t="n">
         <v>2016</v>
@@ -5279,375 +5324,376 @@
       <c r="G135" s="3" t="n">
         <v>10.91</v>
       </c>
-      <c r="H135" s="3" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="H135" s="0"/>
       <c r="I135" s="0"/>
       <c r="J135" s="0"/>
       <c r="K135" s="0"/>
       <c r="L135" s="0"/>
       <c r="M135" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N135" s="0"/>
       <c r="O135" s="0"/>
     </row>
-    <row r="136" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="n">
         <v>35</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>117</v>
+      <c r="C136" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E136" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F136" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="H136" s="3" t="n">
-        <v>3.27</v>
-      </c>
+        <v>11.09</v>
+      </c>
+      <c r="H136" s="0"/>
       <c r="I136" s="0"/>
       <c r="J136" s="0"/>
       <c r="K136" s="0"/>
       <c r="L136" s="0"/>
       <c r="M136" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N136" s="0"/>
       <c r="O136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>6</v>
+      <c r="A137" s="7" t="n">
+        <v>35</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E137" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F137" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="n">
-        <v>10.5</v>
-      </c>
+        <v>11.09</v>
+      </c>
+      <c r="H137" s="0"/>
       <c r="I137" s="0"/>
-      <c r="J137" s="3" t="n">
-        <v>10</v>
-      </c>
+      <c r="J137" s="0"/>
       <c r="K137" s="0"/>
-      <c r="L137" s="2" t="n">
-        <v>13.25</v>
-      </c>
+      <c r="L137" s="0"/>
       <c r="M137" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O137" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="N137" s="0"/>
+      <c r="O137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="D138" s="3" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E138" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F138" s="3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G138" s="3" t="n">
-        <v>12</v>
-      </c>
+        <v>10.66</v>
+      </c>
+      <c r="H138" s="3"/>
       <c r="I138" s="0"/>
-      <c r="J138" s="2" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J138" s="0"/>
       <c r="K138" s="0"/>
       <c r="L138" s="0"/>
       <c r="M138" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O138" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F139" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G139" s="3" t="n">
-        <v>13.25</v>
+        <v>10.84</v>
+      </c>
+      <c r="H139" s="3" t="n">
+        <v>3.25</v>
       </c>
       <c r="I139" s="0"/>
-      <c r="J139" s="2" t="n">
-        <v>12</v>
-      </c>
+      <c r="J139" s="0"/>
       <c r="K139" s="0"/>
       <c r="L139" s="0"/>
       <c r="M139" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O139" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E140" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F140" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G140" s="3" t="n">
-        <v>14.25</v>
+        <v>10.91</v>
+      </c>
+      <c r="H140" s="3" t="n">
+        <v>3.27</v>
       </c>
       <c r="I140" s="0"/>
-      <c r="J140" s="2" t="n">
-        <v>13.25</v>
-      </c>
+      <c r="J140" s="0"/>
       <c r="K140" s="0"/>
       <c r="L140" s="0"/>
       <c r="M140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O140" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="D141" s="3" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F141" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G141" s="3" t="n">
-        <v>15</v>
+        <v>11.09</v>
+      </c>
+      <c r="H141" s="3" t="n">
+        <v>3.32</v>
       </c>
       <c r="I141" s="0"/>
-      <c r="J141" s="2" t="n">
-        <v>14.25</v>
-      </c>
+      <c r="J141" s="0"/>
       <c r="K141" s="0"/>
       <c r="L141" s="0"/>
       <c r="M141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O141" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="D142" s="3" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F142" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G142" s="3" t="n">
-        <v>15</v>
+        <v>11.09</v>
+      </c>
+      <c r="H142" s="3" t="n">
+        <v>3.32</v>
       </c>
       <c r="I142" s="0"/>
-      <c r="J142" s="2" t="n">
-        <v>15</v>
-      </c>
+      <c r="J142" s="0"/>
       <c r="K142" s="0"/>
       <c r="L142" s="0"/>
       <c r="M142" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>123</v>
+        <v>22</v>
+      </c>
+      <c r="O142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E143" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F143" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G143" s="3" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="I143" s="0"/>
-      <c r="J143" s="0"/>
+      <c r="J143" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="K143" s="0"/>
-      <c r="L143" s="0"/>
+      <c r="L143" s="2" t="n">
+        <v>13.25</v>
+      </c>
       <c r="M143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="O143" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="D144" s="3" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E144" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F144" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G144" s="3" t="n">
-        <v>15.24</v>
+        <v>12</v>
       </c>
       <c r="I144" s="0"/>
-      <c r="J144" s="0"/>
+      <c r="J144" s="2" t="n">
+        <v>10.5</v>
+      </c>
       <c r="K144" s="0"/>
       <c r="L144" s="0"/>
       <c r="M144" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F145" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G145" s="3" t="n">
-        <v>15.24</v>
+        <v>13.25</v>
       </c>
       <c r="I145" s="0"/>
-      <c r="J145" s="0"/>
+      <c r="J145" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="K145" s="0"/>
       <c r="L145" s="0"/>
       <c r="M145" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D146" s="3" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E146" s="3" t="n">
         <v>7</v>
@@ -5656,185 +5702,169 @@
         <v>1</v>
       </c>
       <c r="G146" s="3" t="n">
-        <v>15.24</v>
+        <v>14.25</v>
       </c>
       <c r="I146" s="0"/>
-      <c r="J146" s="0"/>
+      <c r="J146" s="2" t="n">
+        <v>13.25</v>
+      </c>
       <c r="K146" s="0"/>
       <c r="L146" s="0"/>
       <c r="M146" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F147" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G147" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I147" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J147" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K147" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="L147" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="I147" s="0"/>
+      <c r="J147" s="2" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K147" s="0"/>
+      <c r="L147" s="0"/>
       <c r="M147" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>128</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F148" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G148" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="I148" s="3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J148" s="3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K148" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L148" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="I148" s="0"/>
+      <c r="J148" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K148" s="0"/>
+      <c r="L148" s="0"/>
       <c r="M148" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C149" s="7" t="s">
+      <c r="B149" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D149" s="3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
+      <c r="K149" s="0"/>
+      <c r="L149" s="0"/>
+      <c r="M149" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D149" s="3" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E149" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F149" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="I149" s="3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J149" s="3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K149" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L149" s="3"/>
-      <c r="M149" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="O149" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>128</v>
+      <c r="B150" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E150" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F150" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G150" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I150" s="3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J150" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="K150" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L150" s="3"/>
+        <v>15.24</v>
+      </c>
+      <c r="I150" s="0"/>
+      <c r="J150" s="0"/>
+      <c r="K150" s="0"/>
+      <c r="L150" s="0"/>
       <c r="M150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O150" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>128</v>
+      <c r="B151" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E151" s="3" t="n">
         <v>1</v>
@@ -5842,36 +5872,32 @@
       <c r="F151" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G151" s="0"/>
-      <c r="I151" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J151" s="3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K151" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="L151" s="3"/>
+      <c r="G151" s="3" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="I151" s="0"/>
+      <c r="J151" s="0"/>
+      <c r="K151" s="0"/>
+      <c r="L151" s="0"/>
       <c r="M151" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O151" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O151" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>128</v>
+      <c r="B152" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E152" s="3" t="n">
         <v>1</v>
@@ -5879,99 +5905,102 @@
       <c r="F152" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G152" s="0"/>
-      <c r="J152" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="K152" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L152" s="3"/>
+      <c r="G152" s="3" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
+      <c r="K152" s="0"/>
+      <c r="L152" s="0"/>
       <c r="M152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O152" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O152" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6" t="n">
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="n">
         <v>53</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>128</v>
+      <c r="B153" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F153" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G153" s="0"/>
-      <c r="J153" s="3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K153" s="3" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="L153" s="3"/>
+      <c r="G153" s="3" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="I153" s="0"/>
+      <c r="J153" s="0"/>
+      <c r="K153" s="0"/>
+      <c r="L153" s="0"/>
       <c r="M153" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O153" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>128</v>
+      <c r="B154" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="E154" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F154" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G154" s="0"/>
+      <c r="G154" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I154" s="3" t="n">
+        <v>11</v>
+      </c>
       <c r="J154" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="K154" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="K154" s="3" t="n">
+        <v>11</v>
+      </c>
       <c r="L154" s="3"/>
       <c r="M154" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>128</v>
+      <c r="B155" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E155" s="3" t="n">
         <v>1</v>
@@ -5979,31 +6008,38 @@
       <c r="F155" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G155" s="0"/>
+      <c r="G155" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I155" s="3" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J155" s="3" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="K155" s="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="K155" s="3" t="n">
+        <v>12</v>
+      </c>
       <c r="L155" s="3"/>
       <c r="M155" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7" t="n">
         <v>53</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>128</v>
+      <c r="B156" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D156" s="3" t="n">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E156" s="3" t="n">
         <v>1</v>
@@ -6011,31 +6047,38 @@
       <c r="F156" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G156" s="0"/>
+      <c r="G156" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I156" s="3" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J156" s="3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K156" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="K156" s="3" t="n">
+        <v>13</v>
+      </c>
       <c r="L156" s="3"/>
       <c r="M156" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="n">
         <v>53</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>128</v>
+      <c r="B157" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="E157" s="3" t="n">
         <v>1</v>
@@ -6044,30 +6087,35 @@
         <v>1</v>
       </c>
       <c r="G157" s="0"/>
+      <c r="I157" s="3" t="n">
+        <v>15</v>
+      </c>
       <c r="J157" s="3" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="K157" s="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="K157" s="3" t="n">
+        <v>14</v>
+      </c>
       <c r="L157" s="3"/>
       <c r="M157" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E158" s="3" t="n">
         <v>1</v>
@@ -6075,53 +6123,67 @@
       <c r="F158" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G158" s="3" t="n">
-        <v>10.3</v>
-      </c>
+      <c r="G158" s="0"/>
+      <c r="J158" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K158" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L158" s="3"/>
       <c r="M158" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O158" s="0"/>
-    </row>
-    <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F159" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G159" s="3" t="n">
-        <v>11</v>
-      </c>
+      <c r="G159" s="0"/>
+      <c r="J159" s="3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K159" s="3" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="L159" s="3"/>
       <c r="M159" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E160" s="3" t="n">
         <v>1</v>
@@ -6129,26 +6191,31 @@
       <c r="F160" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G160" s="3" t="n">
-        <v>13</v>
-      </c>
+      <c r="G160" s="0"/>
+      <c r="J160" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
       <c r="M160" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O160" s="0"/>
-    </row>
-    <row r="161" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E161" s="3" t="n">
         <v>1</v>
@@ -6156,162 +6223,177 @@
       <c r="F161" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G161" s="3" t="n">
-        <v>15</v>
-      </c>
+      <c r="G161" s="0"/>
+      <c r="J161" s="3" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
       <c r="M161" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O161" s="0"/>
-    </row>
-    <row r="162" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7" t="n">
         <v>53</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C162" s="7" t="s">
+      <c r="B162" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C162" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G162" s="3" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="G162" s="0"/>
+      <c r="J162" s="3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
       <c r="M162" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O162" s="0"/>
+      <c r="O162" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6" t="n">
+      <c r="A163" s="7" t="n">
         <v>53</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C163" s="7" t="s">
+      <c r="B163" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C163" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D163" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="0"/>
+      <c r="J163" s="3" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D164" s="3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E164" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D165" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E163" s="3" t="n">
+      <c r="E165" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F163" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" s="3" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="M163" s="2" t="s">
+      <c r="F165" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M165" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O163" s="0"/>
-    </row>
-    <row r="164" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D164" s="3" t="n">
+      <c r="O165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D166" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E164" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F164" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" s="3" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="M164" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D165" s="3" t="n">
+      <c r="E166" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D167" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E165" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F165" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="M165" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O165" s="0"/>
-    </row>
-    <row r="166" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D166" s="3" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E166" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F166" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G166" s="3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M166" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O166" s="0"/>
-    </row>
-    <row r="167" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D167" s="3" t="n">
-        <v>2006</v>
-      </c>
       <c r="E167" s="3" t="n">
         <v>1</v>
       </c>
@@ -6319,147 +6401,1552 @@
         <v>1</v>
       </c>
       <c r="G167" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="M167" s="7" t="s">
-        <v>136</v>
+        <v>15</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="O167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D168" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E168" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D169" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D170" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D171" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="H171" s="3" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="I171" s="0"/>
+      <c r="J171" s="0"/>
+      <c r="K171" s="0"/>
+      <c r="L171" s="0"/>
+      <c r="M171" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N171" s="0"/>
+      <c r="O171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D172" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="H172" s="3" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I172" s="0"/>
+      <c r="J172" s="0"/>
+      <c r="K172" s="0"/>
+      <c r="L172" s="0"/>
+      <c r="M172" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N172" s="0"/>
+      <c r="O172" s="0"/>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D173" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H173" s="3" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="I173" s="0"/>
+      <c r="J173" s="0"/>
+      <c r="K173" s="0"/>
+      <c r="L173" s="0"/>
+      <c r="M173" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N173" s="0"/>
+      <c r="O173" s="0"/>
+    </row>
+    <row r="174" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D168" s="3" t="n">
+      <c r="B174" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D174" s="3" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M174" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O174" s="0"/>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D175" s="3" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M175" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O175" s="0"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D176" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="E168" s="3" t="n">
+      <c r="E176" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F168" s="3" t="n">
+      <c r="F176" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G168" s="3" t="n">
+      <c r="G176" s="3" t="n">
         <v>7.55</v>
       </c>
-      <c r="M168" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O168" s="0"/>
-    </row>
-    <row r="169" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6" t="n">
+      <c r="H176" s="2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M176" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D169" s="3" t="n">
+      <c r="B177" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D177" s="3" t="n">
         <v>2009</v>
       </c>
-      <c r="E169" s="3" t="n">
+      <c r="E177" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F169" s="3" t="n">
+      <c r="F177" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G169" s="3" t="n">
+      <c r="G177" s="3" t="n">
         <v>8.25</v>
       </c>
-      <c r="M169" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O169" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6" t="n">
+      <c r="H177" s="2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M177" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="O177" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D170" s="3" t="n">
+      <c r="B178" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D178" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="E170" s="3" t="n">
+      <c r="E178" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F170" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" s="3" t="n">
+      <c r="F178" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="M170" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6" t="n">
+      <c r="H178" s="2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M178" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D171" s="3" t="n">
+      <c r="B179" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D179" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E171" s="3" t="n">
+      <c r="E179" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F171" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3" t="n">
+      <c r="F179" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="M171" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="n">
+      <c r="H179" s="2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M179" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D172" s="3" t="n">
+      <c r="B180" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D180" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E172" s="3" t="n">
+      <c r="E180" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F172" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" s="3" t="n">
+      <c r="F180" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="M172" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="H180" s="2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M180" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D181" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F181" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="M181" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D182" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F182" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M182" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D183" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F183" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M183" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D184" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E184" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F184" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M184" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="185" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D185" s="12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E185" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F185" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G185" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="13"/>
+      <c r="L185" s="13"/>
+      <c r="M185" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N185" s="13"/>
+      <c r="O185" s="13"/>
+    </row>
+    <row r="186" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D186" s="12" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E186" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F186" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G186" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H186" s="13"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="13"/>
+      <c r="K186" s="13"/>
+      <c r="L186" s="13"/>
+      <c r="M186" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N186" s="13"/>
+      <c r="O186" s="13"/>
+    </row>
+    <row r="187" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D187" s="12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E187" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F187" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G187" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H187" s="13"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="13"/>
+      <c r="K187" s="13"/>
+      <c r="L187" s="13"/>
+      <c r="M187" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N187" s="13"/>
+      <c r="O187" s="13"/>
+    </row>
+    <row r="188" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D188" s="12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E188" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F188" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G188" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="13"/>
+      <c r="M188" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N188" s="13"/>
+      <c r="O188" s="13"/>
+    </row>
+    <row r="189" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D189" s="12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E189" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F189" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G189" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
+      <c r="K189" s="13"/>
+      <c r="L189" s="13"/>
+      <c r="M189" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N189" s="13"/>
+      <c r="O189" s="13"/>
+    </row>
+    <row r="190" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D190" s="12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E190" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F190" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G190" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K190" s="13"/>
+      <c r="L190" s="13"/>
+      <c r="M190" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N190" s="13"/>
+      <c r="O190" s="13"/>
+    </row>
+    <row r="191" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D191" s="12" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E191" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F191" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G191" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K191" s="13"/>
+      <c r="L191" s="13"/>
+      <c r="M191" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N191" s="13"/>
+      <c r="O191" s="13"/>
+    </row>
+    <row r="192" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D192" s="12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E192" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F192" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G192" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K192" s="13"/>
+      <c r="L192" s="13"/>
+      <c r="M192" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N192" s="13"/>
+      <c r="O192" s="13"/>
+    </row>
+    <row r="193" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D193" s="12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E193" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F193" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G193" s="12"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="K193" s="13"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N193" s="13"/>
+      <c r="O193" s="13"/>
+    </row>
+    <row r="194" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D194" s="12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E194" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F194" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G194" s="12" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="H194" s="13"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="13"/>
+      <c r="K194" s="13"/>
+      <c r="L194" s="13"/>
+      <c r="M194" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N194" s="13"/>
+      <c r="O194" s="13"/>
+    </row>
+    <row r="195" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D195" s="12" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E195" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F195" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G195" s="12" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="13"/>
+      <c r="K195" s="13"/>
+      <c r="L195" s="13"/>
+      <c r="M195" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N195" s="13"/>
+      <c r="O195" s="13"/>
+    </row>
+    <row r="196" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D196" s="12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E196" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F196" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G196" s="12" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="13"/>
+      <c r="K196" s="13"/>
+      <c r="L196" s="13"/>
+      <c r="M196" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N196" s="13"/>
+      <c r="O196" s="13"/>
+    </row>
+    <row r="197" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D197" s="12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E197" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F197" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G197" s="12" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H197" s="13"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="13"/>
+      <c r="K197" s="13"/>
+      <c r="L197" s="13"/>
+      <c r="M197" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N197" s="13"/>
+      <c r="O197" s="13"/>
+    </row>
+    <row r="198" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D198" s="12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E198" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F198" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G198" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13"/>
+      <c r="K198" s="13"/>
+      <c r="L198" s="13"/>
+      <c r="M198" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N198" s="13"/>
+      <c r="O198" s="13"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D199" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E199" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F199" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D200" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E200" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F200" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D201" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E201" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F201" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D202" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D203" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E203" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F203" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E204" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F204" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E205" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F205" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F206" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F207" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D208" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E208" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F208" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D209" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E209" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F209" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="M209" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E210" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F210" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D211" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E211" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F211" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="M211" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D212" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E212" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F212" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M212" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D213" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E213" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F213" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M213" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D214" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E214" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F214" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M214" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D215" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E215" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F215" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="M215" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D216" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E216" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F216" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M216" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D217" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E217" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F217" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" s="3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M217" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D218" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E218" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F218" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M218" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D219" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E219" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F219" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M219" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/rawdata/VZ_SubstateMinimumWage_Changes.xlsx
+++ b/rawdata/VZ_SubstateMinimumWage_Changes.xlsx
@@ -10,17 +10,21 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="158">
   <si>
     <t xml:space="preserve">statefips</t>
   </si>
@@ -352,6 +356,9 @@
     <t xml:space="preserve">http://www.sanjoseca.gov/DocumentCenter/View/65220</t>
   </si>
   <si>
+    <t xml:space="preserve">state increase</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santa Clara</t>
   </si>
   <si>
@@ -488,9 +495,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.oregon.gov/boli/WHD/OMW/Pages/Minimum-Wage-Rate-Summary.aspx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard</t>
   </si>
   <si>
     <t xml:space="preserve">Nonurban counties</t>
@@ -503,13 +507,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -528,7 +530,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -581,61 +590,53 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -655,25 +656,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O65536"/>
+  <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C126" activeCellId="0" sqref="C126"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="2" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="14.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -723,14 +724,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="3" t="n">
@@ -742,32 +743,31 @@
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="7" t="n">
         <v>6.75</v>
       </c>
-      <c r="H2" s="0"/>
-      <c r="I2" s="2" t="n">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="n">
         <v>5.75</v>
       </c>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="n">
@@ -779,32 +779,31 @@
       <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="7" t="n">
         <v>7.15</v>
       </c>
-      <c r="H3" s="0"/>
-      <c r="I3" s="2" t="n">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="n">
         <v>6.15</v>
       </c>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="2" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="0"/>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="n">
@@ -816,32 +815,31 @@
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="7" t="n">
         <v>7.5</v>
       </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="2" t="n">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="n">
         <v>6.5</v>
       </c>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="2" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="0"/>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="n">
@@ -853,32 +851,31 @@
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="7" t="n">
         <v>8.5</v>
       </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="2" t="n">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="n">
         <v>7.5</v>
       </c>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-      <c r="M5" s="2" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="0"/>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="n">
@@ -890,32 +887,31 @@
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="7" t="n">
         <v>8.6</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="7" t="n">
         <v>5.16</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="7" t="n">
         <v>7.6</v>
       </c>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-      <c r="M6" s="2" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="n">
@@ -927,32 +923,31 @@
       <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="7" t="n">
         <v>8.75</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="7" t="n">
         <v>7.75</v>
       </c>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="2" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="n">
@@ -964,32 +959,31 @@
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="7" t="n">
         <v>8.75</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="7" t="n">
         <v>7.75</v>
       </c>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="n">
@@ -1001,32 +995,31 @@
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="7" t="n">
         <v>8.8</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.3</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="7" t="n">
         <v>7.8</v>
       </c>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="2" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3" t="n">
@@ -1038,32 +1031,31 @@
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="7" t="n">
         <v>8.8</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="7" t="n">
         <v>5.3</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="7" t="n">
         <v>7.8</v>
       </c>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="2" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3" t="n">
@@ -1075,28 +1067,27 @@
       <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="2" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="3" t="n">
@@ -1108,28 +1099,27 @@
       <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="2" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="3" t="n">
@@ -1141,28 +1131,27 @@
       <c r="F13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="7" t="n">
         <v>12.53</v>
       </c>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="2" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="3" t="n">
@@ -1174,28 +1163,27 @@
       <c r="F14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="7" t="n">
         <v>13.75</v>
       </c>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="2" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3" t="n">
@@ -1207,28 +1195,27 @@
       <c r="F15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="2" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="3" t="n">
@@ -1240,25 +1227,25 @@
       <c r="F16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="3" t="n">
@@ -1270,25 +1257,25 @@
       <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="7" t="n">
         <v>13.5</v>
       </c>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="3" t="n">
@@ -1300,25 +1287,25 @@
       <c r="F18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="3" t="n">
@@ -1330,32 +1317,31 @@
       <c r="F19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="7" t="n">
         <v>2.13</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="2" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="3" t="n">
@@ -1367,32 +1353,31 @@
       <c r="F20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="7" t="n">
         <v>8.5</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="7" t="n">
         <v>2.13</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="7" t="n">
         <v>7.5</v>
       </c>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="2" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="3" t="n">
@@ -1404,30 +1389,29 @@
       <c r="F21" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="7" t="n">
         <v>8.65</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="7" t="n">
         <v>2.13</v>
       </c>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="2" t="s">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="n">
@@ -1439,30 +1423,29 @@
       <c r="F22" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="7" t="n">
         <v>8.65</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="7" t="n">
         <v>2.13</v>
       </c>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="2" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="3" t="n">
@@ -1474,32 +1457,32 @@
       <c r="F23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="7" t="n">
         <v>8.7</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="7" t="n">
         <v>2.13</v>
       </c>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="2" t="s">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="N23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="0"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="3" t="n">
@@ -1511,30 +1494,29 @@
       <c r="F24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="7" t="n">
         <v>8.7</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="7" t="n">
         <v>2.13</v>
       </c>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="2" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="3" t="n">
@@ -1546,32 +1528,32 @@
       <c r="F25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="7" t="n">
         <v>10</v>
       </c>
       <c r="H25" s="3" t="n">
         <v>5.45</v>
       </c>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="2" t="s">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="0"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="3" t="n">
@@ -1583,32 +1565,32 @@
       <c r="F26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="7" t="n">
         <v>10.5</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>5.95</v>
       </c>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="2" t="s">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="0"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="3" t="n">
@@ -1620,30 +1602,30 @@
       <c r="F27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="7" t="n">
         <v>11</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="2" t="s">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O27" s="0"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="3" t="n">
@@ -1655,30 +1637,30 @@
       <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="2" t="s">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="0"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="3" t="n">
@@ -1690,30 +1672,30 @@
       <c r="F29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="2" t="s">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="0"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="3" t="n">
@@ -1725,28 +1707,27 @@
       <c r="F30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="7" t="n">
         <v>11.6</v>
       </c>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="2" t="s">
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="3" t="n">
@@ -1758,28 +1739,27 @@
       <c r="F31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="7" t="n">
         <v>12.25</v>
       </c>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-      <c r="M31" s="2" t="s">
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
+      <c r="O31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="3" t="n">
@@ -1791,28 +1771,27 @@
       <c r="F32" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="7" t="n">
         <v>13.6</v>
       </c>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="2" t="s">
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
+      <c r="O32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="A33" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="3" t="n">
@@ -1824,28 +1803,27 @@
       <c r="F33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="2" t="s">
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="3" t="n">
@@ -1857,32 +1835,31 @@
       <c r="F34" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="7" t="n">
         <v>14.44</v>
       </c>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="3" t="n">
         <v>12.25</v>
       </c>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-      <c r="M34" s="2" t="s">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N34" s="0"/>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="3" t="n">
@@ -1894,32 +1871,31 @@
       <c r="F35" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="3" t="n">
+      <c r="G35" s="7" t="n">
         <v>14.82</v>
       </c>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="2" t="n">
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="2" t="s">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N35" s="0"/>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="8" t="s">
+    <row r="36" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="3" t="n">
@@ -1931,30 +1907,28 @@
       <c r="F36" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="2" t="n">
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="2" t="s">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N36" s="0"/>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="8" t="s">
+    <row r="37" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="3" t="n">
@@ -1966,30 +1940,28 @@
       <c r="F37" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="2" t="n">
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="K37" s="0"/>
-      <c r="L37" s="0"/>
-      <c r="M37" s="2" t="s">
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="0"/>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="3" t="n">
@@ -2001,30 +1973,29 @@
       <c r="F38" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="3" t="n">
+      <c r="G38" s="7" t="n">
         <v>8.2</v>
       </c>
       <c r="H38" s="3" t="n">
         <v>4.92</v>
       </c>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
-      <c r="L38" s="0"/>
-      <c r="M38" s="2" t="s">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="3" t="n">
@@ -2036,30 +2007,29 @@
       <c r="F39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="3" t="n">
+      <c r="G39" s="7" t="n">
         <v>9.15</v>
       </c>
       <c r="H39" s="3" t="n">
         <v>5.49</v>
       </c>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
-      <c r="K39" s="0"/>
-      <c r="L39" s="0"/>
-      <c r="M39" s="2" t="s">
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="0"/>
-      <c r="O39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="3" t="n">
@@ -2071,30 +2041,29 @@
       <c r="F40" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="3" t="n">
+      <c r="G40" s="7" t="n">
         <v>10.1</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>6.06</v>
       </c>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
-      <c r="L40" s="0"/>
-      <c r="M40" s="2" t="s">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N40" s="0"/>
-      <c r="O40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="3" t="n">
@@ -2106,30 +2075,29 @@
       <c r="F41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="7" t="n">
         <v>10.1</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>6.06</v>
       </c>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="2" t="s">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="3" t="n">
@@ -2141,32 +2109,31 @@
       <c r="F42" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="7" t="n">
         <v>8.4</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>3.36</v>
       </c>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
-      <c r="L42" s="0"/>
-      <c r="M42" s="2" t="s">
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N42" s="0"/>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+      <c r="A43" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="3" t="n">
@@ -2178,32 +2145,31 @@
       <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="7" t="n">
         <v>9.2</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>3.68</v>
       </c>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-      <c r="L43" s="0"/>
-      <c r="M43" s="2" t="s">
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N43" s="0"/>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="A44" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="3" t="n">
@@ -2215,32 +2181,31 @@
       <c r="F44" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="7" t="n">
         <v>10.1</v>
       </c>
       <c r="H44" s="3" t="n">
         <v>4.04</v>
       </c>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
-      <c r="L44" s="0"/>
-      <c r="M44" s="2" t="s">
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="0"/>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+    <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="3" t="n">
@@ -2252,30 +2217,29 @@
       <c r="F45" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="7" t="n">
         <v>8.2</v>
       </c>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="2" t="s">
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N45" s="0"/>
-      <c r="O45" s="2" t="s">
+      <c r="O45" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+    <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="3" t="n">
@@ -2287,30 +2251,29 @@
       <c r="F46" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="7" t="n">
         <v>9.15</v>
       </c>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
-      <c r="L46" s="0"/>
-      <c r="M46" s="2" t="s">
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N46" s="0"/>
-      <c r="O46" s="2" t="s">
+      <c r="O46" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+    <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="3" t="n">
@@ -2322,30 +2285,29 @@
       <c r="F47" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" s="7" t="n">
         <v>10.1</v>
       </c>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="M47" s="2" t="s">
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N47" s="0"/>
-      <c r="O47" s="2" t="s">
+      <c r="O47" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="A48" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="3" t="n">
@@ -2357,30 +2319,29 @@
       <c r="F48" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H48" s="0"/>
-      <c r="I48" s="0"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="0"/>
-      <c r="L48" s="0"/>
-      <c r="M48" s="2" t="s">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N48" s="0"/>
-      <c r="O48" s="2" t="s">
+      <c r="O48" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="A49" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="3" t="n">
@@ -2392,30 +2353,29 @@
       <c r="F49" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="2" t="n">
         <v>13.5</v>
       </c>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="2" t="s">
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N49" s="0"/>
-      <c r="O49" s="2" t="s">
+      <c r="O49" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D50" s="3" t="n">
@@ -2427,30 +2387,29 @@
       <c r="F50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="2" t="s">
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N50" s="0"/>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="A51" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="3" t="n">
@@ -2462,30 +2421,29 @@
       <c r="F51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G51" s="7" t="n">
         <v>10.5</v>
       </c>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="2" t="s">
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N51" s="0"/>
-      <c r="O51" s="2" t="s">
+      <c r="O51" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="A52" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="3" t="n">
@@ -2500,27 +2458,26 @@
       <c r="G52" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H52" s="0"/>
-      <c r="I52" s="0"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="2" t="s">
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
+      <c r="O52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="A53" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="3" t="n">
@@ -2535,27 +2492,26 @@
       <c r="G53" s="2" t="n">
         <v>13.25</v>
       </c>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="2" t="n">
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="2" t="s">
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
+      <c r="O53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="A54" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="3" t="n">
@@ -2570,27 +2526,26 @@
       <c r="G54" s="2" t="n">
         <v>14.25</v>
       </c>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="2" t="n">
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7" t="n">
         <v>13.25</v>
       </c>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="2" t="s">
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
+      <c r="O54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="A55" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="3" t="n">
@@ -2605,27 +2560,26 @@
       <c r="G55" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="2" t="n">
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7" t="n">
         <v>14.25</v>
       </c>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="2" t="s">
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="3" t="n">
@@ -2637,28 +2591,26 @@
       <c r="F56" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G56" s="0"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="2" t="n">
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="2" t="s">
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
+      <c r="O56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="A57" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="3" t="n">
@@ -2670,28 +2622,27 @@
       <c r="F57" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G57" s="3" t="n">
+      <c r="G57" s="7" t="n">
         <v>10.5</v>
       </c>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="2" t="s">
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
+      <c r="O57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="A58" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="3" t="n">
@@ -2703,32 +2654,31 @@
       <c r="F58" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G58" s="3" t="n">
+      <c r="G58" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
       <c r="J58" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="2" t="s">
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N58" s="0"/>
-      <c r="O58" s="2" t="s">
+      <c r="O58" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="A59" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D59" s="3" t="n">
@@ -2740,32 +2690,31 @@
       <c r="F59" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G59" s="3" t="n">
+      <c r="G59" s="7" t="n">
         <v>13.25</v>
       </c>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
       <c r="J59" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="2" t="s">
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N59" s="0"/>
-      <c r="O59" s="2" t="s">
+      <c r="O59" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="3" t="n">
@@ -2777,32 +2726,31 @@
       <c r="F60" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G60" s="3" t="n">
+      <c r="G60" s="7" t="n">
         <v>14.25</v>
       </c>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
       <c r="J60" s="3" t="n">
         <v>13.25</v>
       </c>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="2" t="s">
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N60" s="0"/>
-      <c r="O60" s="2" t="s">
+      <c r="O60" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="A61" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="3" t="n">
@@ -2814,32 +2762,31 @@
       <c r="F61" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G61" s="3" t="n">
+      <c r="G61" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H61" s="0"/>
-      <c r="I61" s="0"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
       <c r="J61" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="2" t="s">
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N61" s="0"/>
-      <c r="O61" s="2" t="s">
+      <c r="O61" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="8" t="s">
+    <row r="62" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D62" s="3" t="n">
@@ -2851,30 +2798,28 @@
       <c r="F62" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
-      <c r="I62" s="0"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
       <c r="J62" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="K62" s="0"/>
-      <c r="L62" s="0"/>
-      <c r="M62" s="2" t="s">
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N62" s="0"/>
-      <c r="O62" s="2" t="s">
+      <c r="O62" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D63" s="3" t="n">
@@ -2886,28 +2831,27 @@
       <c r="F63" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G63" s="3" t="n">
+      <c r="G63" s="7" t="n">
         <v>7.75</v>
       </c>
-      <c r="H63" s="0"/>
-      <c r="I63" s="0"/>
-      <c r="J63" s="0"/>
-      <c r="K63" s="0"/>
-      <c r="L63" s="0"/>
-      <c r="M63" s="2" t="s">
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N63" s="0"/>
-      <c r="O63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="3" t="n">
@@ -2919,27 +2863,27 @@
       <c r="F64" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G64" s="3" t="n">
+      <c r="G64" s="7" t="n">
         <v>8.25</v>
       </c>
-      <c r="H64" s="0"/>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-      <c r="K64" s="0"/>
-      <c r="L64" s="0"/>
-      <c r="M64" s="2" t="s">
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D65" s="3" t="n">
@@ -2951,27 +2895,27 @@
       <c r="F65" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G65" s="3" t="n">
+      <c r="G65" s="7" t="n">
         <v>7.25</v>
       </c>
-      <c r="H65" s="0"/>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-      <c r="K65" s="0"/>
-      <c r="L65" s="0"/>
-      <c r="M65" s="2" t="s">
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="n">
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D66" s="3" t="n">
@@ -2983,27 +2927,27 @@
       <c r="F66" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G66" s="3" t="n">
+      <c r="G66" s="7" t="n">
         <v>7.25</v>
       </c>
-      <c r="H66" s="0"/>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
-      <c r="K66" s="0"/>
-      <c r="L66" s="0"/>
-      <c r="M66" s="2" t="s">
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="3" t="n">
@@ -3015,30 +2959,29 @@
       <c r="F67" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G67" s="3" t="n">
+      <c r="G67" s="7" t="n">
         <v>8.4</v>
       </c>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
-      <c r="L67" s="0"/>
-      <c r="M67" s="2" t="s">
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N67" s="0"/>
-      <c r="O67" s="2" t="s">
+      <c r="O67" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="3" t="n">
@@ -3050,30 +2993,29 @@
       <c r="F68" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G68" s="3" t="n">
+      <c r="G68" s="7" t="n">
         <v>9.55</v>
       </c>
-      <c r="H68" s="0"/>
-      <c r="I68" s="0"/>
-      <c r="J68" s="0"/>
-      <c r="K68" s="0"/>
-      <c r="L68" s="0"/>
-      <c r="M68" s="2" t="s">
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N68" s="0"/>
-      <c r="O68" s="2" t="s">
+      <c r="O68" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="n">
+      <c r="A69" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D69" s="3" t="n">
@@ -3085,32 +3027,31 @@
       <c r="F69" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G69" s="3" t="n">
+      <c r="G69" s="7" t="n">
         <v>10.75</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-      <c r="K69" s="0"/>
-      <c r="L69" s="0"/>
-      <c r="M69" s="2" t="s">
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N69" s="0"/>
-      <c r="O69" s="2" t="s">
+      <c r="O69" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="n">
+      <c r="A70" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D70" s="3" t="n">
@@ -3122,30 +3063,29 @@
       <c r="F70" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G70" s="3" t="n">
+      <c r="G70" s="7" t="n">
         <v>11.5</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-      <c r="K70" s="0"/>
-      <c r="L70" s="0"/>
-      <c r="M70" s="2" t="s">
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N70" s="0"/>
-      <c r="O70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="O70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="3" t="n">
@@ -3157,28 +3097,27 @@
       <c r="F71" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G71" s="3" t="n">
+      <c r="G71" s="7" t="n">
         <v>10.3</v>
       </c>
-      <c r="H71" s="0"/>
-      <c r="I71" s="0"/>
-      <c r="J71" s="0"/>
-      <c r="K71" s="0"/>
-      <c r="L71" s="0"/>
-      <c r="M71" s="2" t="s">
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="N71" s="0"/>
-      <c r="O71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="8" t="s">
+      <c r="O71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="3" t="n">
@@ -3190,94 +3129,91 @@
       <c r="F72" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G72" s="3" t="n">
+      <c r="G72" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="0"/>
-      <c r="L72" s="0"/>
-      <c r="M72" s="2" t="s">
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N72" s="0"/>
-      <c r="O72" s="0"/>
-    </row>
-    <row r="73" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="12" t="n">
+      <c r="D73" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E73" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="12" t="n">
+      <c r="E73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="10" t="s">
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-    </row>
-    <row r="74" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="12" t="n">
+      <c r="D74" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E74" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="12" t="n">
+      <c r="E74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="10" t="s">
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-    </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="3" t="n">
@@ -3289,28 +3225,27 @@
       <c r="F75" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G75" s="3" t="n">
+      <c r="G75" s="7" t="n">
         <v>12.25</v>
       </c>
-      <c r="H75" s="0"/>
-      <c r="I75" s="0"/>
-      <c r="J75" s="0"/>
-      <c r="K75" s="0"/>
-      <c r="L75" s="0"/>
-      <c r="M75" s="2" t="s">
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N75" s="0"/>
-      <c r="O75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="8" t="s">
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D76" s="3" t="n">
@@ -3322,28 +3257,27 @@
       <c r="F76" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G76" s="3" t="n">
+      <c r="G76" s="7" t="n">
         <v>12.55</v>
       </c>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="0"/>
-      <c r="L76" s="0"/>
-      <c r="M76" s="2" t="s">
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N76" s="0"/>
-      <c r="O76" s="0"/>
+      <c r="O76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="A77" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D77" s="3" t="n">
@@ -3355,28 +3289,27 @@
       <c r="F77" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G77" s="3" t="n">
+      <c r="G77" s="7" t="n">
         <v>12.86</v>
       </c>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="M77" s="2" t="s">
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N77" s="0"/>
-      <c r="O77" s="0"/>
+      <c r="O77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="A78" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D78" s="3" t="n">
@@ -3388,28 +3321,27 @@
       <c r="F78" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G78" s="3" t="n">
+      <c r="G78" s="7" t="n">
         <v>12.86</v>
       </c>
-      <c r="H78" s="0"/>
-      <c r="I78" s="0"/>
-      <c r="J78" s="0"/>
-      <c r="K78" s="0"/>
-      <c r="L78" s="0"/>
-      <c r="M78" s="2" t="s">
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N78" s="0"/>
-      <c r="O78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="O78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="3" t="n">
@@ -3421,28 +3353,27 @@
       <c r="F79" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G79" s="3" t="n">
+      <c r="G79" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
-      <c r="J79" s="0"/>
-      <c r="K79" s="0"/>
-      <c r="L79" s="0"/>
-      <c r="M79" s="2" t="s">
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N79" s="0"/>
-      <c r="O79" s="0"/>
+      <c r="O79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="8" t="s">
+      <c r="A80" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D80" s="3" t="n">
@@ -3454,28 +3385,27 @@
       <c r="F80" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G80" s="3" t="n">
+      <c r="G80" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="H80" s="0"/>
-      <c r="I80" s="0"/>
-      <c r="J80" s="0"/>
-      <c r="K80" s="0"/>
-      <c r="L80" s="0"/>
-      <c r="M80" s="2" t="s">
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N80" s="0"/>
-      <c r="O80" s="0"/>
+      <c r="O80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="A81" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D81" s="3" t="n">
@@ -3487,28 +3417,27 @@
       <c r="F81" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G81" s="3" t="n">
+      <c r="G81" s="7" t="n">
         <v>13.5</v>
       </c>
-      <c r="H81" s="0"/>
-      <c r="I81" s="0"/>
-      <c r="J81" s="0"/>
-      <c r="K81" s="0"/>
-      <c r="L81" s="0"/>
-      <c r="M81" s="2" t="s">
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N81" s="0"/>
-      <c r="O81" s="0"/>
+      <c r="O81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="8" t="s">
+      <c r="A82" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D82" s="3" t="n">
@@ -3520,28 +3449,27 @@
       <c r="F82" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G82" s="3" t="n">
+      <c r="G82" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H82" s="0"/>
-      <c r="I82" s="0"/>
-      <c r="J82" s="0"/>
-      <c r="K82" s="0"/>
-      <c r="L82" s="0"/>
-      <c r="M82" s="2" t="s">
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N82" s="0"/>
-      <c r="O82" s="0"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="n">
+      <c r="O82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D83" s="3" t="n">
@@ -3553,33 +3481,32 @@
       <c r="F83" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G83" s="3" t="n">
+      <c r="G83" s="7" t="n">
         <v>8.75</v>
       </c>
       <c r="H83" s="3" t="n">
         <f aca="false">G83-5</f>
         <v>3.75</v>
       </c>
-      <c r="I83" s="0"/>
-      <c r="J83" s="0"/>
-      <c r="K83" s="0"/>
-      <c r="L83" s="0"/>
-      <c r="M83" s="2" t="s">
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N83" s="0"/>
-      <c r="O83" s="0" t="s">
+      <c r="O83" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="n">
+    <row r="84" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D84" s="3" t="n">
@@ -3591,31 +3518,30 @@
       <c r="F84" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G84" s="3" t="n">
+      <c r="G84" s="7" t="n">
         <v>9.75</v>
       </c>
       <c r="H84" s="3" t="n">
         <f aca="false">G84-5</f>
         <v>4.75</v>
       </c>
-      <c r="I84" s="0"/>
-      <c r="J84" s="0"/>
-      <c r="K84" s="0"/>
-      <c r="L84" s="0"/>
-      <c r="M84" s="2" t="s">
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N84" s="0"/>
-      <c r="O84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="n">
+      <c r="O84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D85" s="3" t="n">
@@ -3627,31 +3553,30 @@
       <c r="F85" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G85" s="3" t="n">
+      <c r="G85" s="7" t="n">
         <v>10.75</v>
       </c>
       <c r="H85" s="3" t="n">
         <f aca="false">G85-5</f>
         <v>5.75</v>
       </c>
-      <c r="I85" s="0"/>
-      <c r="J85" s="0"/>
-      <c r="K85" s="0"/>
-      <c r="L85" s="0"/>
-      <c r="M85" s="2" t="s">
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N85" s="0"/>
-      <c r="O85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="O85" s="7"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="3" t="n">
@@ -3663,34 +3588,34 @@
       <c r="F86" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G86" s="3" t="n">
+      <c r="G86" s="7" t="n">
         <v>10.1</v>
       </c>
       <c r="H86" s="3" t="n">
         <v>3.75</v>
       </c>
-      <c r="I86" s="0"/>
+      <c r="I86" s="7"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="0"/>
-      <c r="L86" s="0"/>
-      <c r="M86" s="2" t="s">
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7" t="s">
         <v>88</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O86" s="2" t="s">
+      <c r="O86" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B87" s="2" t="s">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D87" s="3" t="n">
@@ -3702,32 +3627,32 @@
       <c r="F87" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G87" s="3" t="n">
+      <c r="G87" s="7" t="n">
         <v>10.68</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="I87" s="0"/>
-      <c r="J87" s="0"/>
-      <c r="K87" s="0"/>
-      <c r="L87" s="0"/>
-      <c r="M87" s="2" t="s">
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O87" s="0"/>
+      <c r="O87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="A88" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D88" s="3" t="n">
@@ -3739,29 +3664,29 @@
       <c r="F88" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G88" s="3" t="n">
+      <c r="G88" s="7" t="n">
         <v>10.68</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="I88" s="0"/>
-      <c r="J88" s="0"/>
-      <c r="K88" s="0"/>
-      <c r="L88" s="0"/>
-      <c r="M88" s="2" t="s">
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="O88" s="7"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D89" s="3" t="n">
@@ -3773,28 +3698,27 @@
       <c r="F89" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G89" s="3" t="n">
+      <c r="G89" s="7" t="n">
         <v>8.4</v>
       </c>
-      <c r="H89" s="0"/>
-      <c r="I89" s="0"/>
-      <c r="J89" s="0"/>
-      <c r="K89" s="0"/>
-      <c r="L89" s="0"/>
-      <c r="M89" s="2" t="s">
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="N89" s="0"/>
-      <c r="O89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="O89" s="7"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="3" t="n">
@@ -3806,28 +3730,27 @@
       <c r="F90" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G90" s="3" t="n">
+      <c r="G90" s="7" t="n">
         <v>9.55</v>
       </c>
-      <c r="H90" s="0"/>
-      <c r="I90" s="0"/>
-      <c r="J90" s="0"/>
-      <c r="K90" s="0"/>
-      <c r="L90" s="0"/>
-      <c r="M90" s="2" t="s">
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="N90" s="0"/>
-      <c r="O90" s="0"/>
+      <c r="O90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D91" s="3" t="n">
@@ -3839,28 +3762,27 @@
       <c r="F91" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G91" s="3" t="n">
+      <c r="G91" s="7" t="n">
         <v>9.55</v>
       </c>
-      <c r="H91" s="0"/>
-      <c r="I91" s="0"/>
-      <c r="J91" s="0"/>
-      <c r="K91" s="0"/>
-      <c r="L91" s="0"/>
-      <c r="M91" s="2" t="s">
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N91" s="0"/>
-      <c r="O91" s="0"/>
+      <c r="O91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="n">
+      <c r="A92" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="3" t="n">
@@ -3872,28 +3794,27 @@
       <c r="F92" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G92" s="3" t="n">
+      <c r="G92" s="7" t="n">
         <v>10.75</v>
       </c>
-      <c r="H92" s="0"/>
-      <c r="I92" s="0"/>
-      <c r="J92" s="0"/>
-      <c r="K92" s="0"/>
-      <c r="L92" s="0"/>
-      <c r="M92" s="2" t="s">
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="N92" s="0"/>
-      <c r="O92" s="0"/>
+      <c r="O92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="n">
+      <c r="A93" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D93" s="3" t="n">
@@ -3905,28 +3826,27 @@
       <c r="F93" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G93" s="3" t="n">
+      <c r="G93" s="7" t="n">
         <v>11.5</v>
       </c>
-      <c r="H93" s="0"/>
-      <c r="I93" s="0"/>
-      <c r="J93" s="0"/>
-      <c r="K93" s="0"/>
-      <c r="L93" s="0"/>
-      <c r="M93" s="2" t="s">
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="N93" s="0"/>
-      <c r="O93" s="0"/>
-    </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="8" t="s">
+      <c r="O93" s="7"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="3" t="n">
@@ -3938,30 +3858,30 @@
       <c r="F94" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G94" s="3" t="n">
+      <c r="G94" s="7" t="n">
         <v>9.6</v>
       </c>
-      <c r="H94" s="0"/>
-      <c r="I94" s="0"/>
-      <c r="J94" s="0"/>
-      <c r="K94" s="0"/>
-      <c r="L94" s="0"/>
-      <c r="M94" s="2" t="s">
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7" t="s">
         <v>96</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O94" s="0"/>
-    </row>
-    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="8" t="s">
+      <c r="O94" s="7"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D95" s="3" t="n">
@@ -3973,30 +3893,30 @@
       <c r="F95" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G95" s="3" t="n">
+      <c r="G95" s="7" t="n">
         <v>11.52</v>
       </c>
-      <c r="H95" s="0"/>
-      <c r="I95" s="0"/>
-      <c r="J95" s="0"/>
-      <c r="K95" s="0"/>
-      <c r="L95" s="0"/>
-      <c r="M95" s="2" t="s">
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7" t="s">
         <v>96</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O95" s="0"/>
+      <c r="O95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="8" t="s">
+      <c r="A96" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D96" s="3" t="n">
@@ -4008,30 +3928,30 @@
       <c r="F96" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G96" s="3" t="n">
+      <c r="G96" s="7" t="n">
         <v>11.52</v>
       </c>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
-      <c r="K96" s="0"/>
-      <c r="L96" s="0"/>
-      <c r="M96" s="2" t="s">
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7" t="s">
         <v>22</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O96" s="0"/>
+      <c r="O96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" s="8" t="s">
+      <c r="A97" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D97" s="3" t="n">
@@ -4043,30 +3963,30 @@
       <c r="F97" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G97" s="3" t="n">
+      <c r="G97" s="7" t="n">
         <v>12.3</v>
       </c>
-      <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
-      <c r="J97" s="0"/>
-      <c r="K97" s="0"/>
-      <c r="L97" s="0"/>
-      <c r="M97" s="2" t="s">
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7" t="s">
         <v>96</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O97" s="0"/>
+      <c r="O97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" s="8" t="s">
+      <c r="A98" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D98" s="3" t="n">
@@ -4078,30 +3998,30 @@
       <c r="F98" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G98" s="3" t="n">
+      <c r="G98" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H98" s="0"/>
-      <c r="I98" s="0"/>
-      <c r="J98" s="0"/>
-      <c r="K98" s="0"/>
-      <c r="L98" s="0"/>
-      <c r="M98" s="2" t="s">
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7" t="s">
         <v>96</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O98" s="0"/>
-    </row>
-    <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="8" t="s">
+      <c r="O98" s="7"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D99" s="3" t="n">
@@ -4113,28 +4033,27 @@
       <c r="F99" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G99" s="3" t="n">
+      <c r="G99" s="7" t="n">
         <v>9.75</v>
       </c>
-      <c r="H99" s="0"/>
-      <c r="I99" s="0"/>
-      <c r="J99" s="0"/>
-      <c r="K99" s="0"/>
-      <c r="L99" s="0"/>
-      <c r="M99" s="2" t="s">
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="N99" s="0"/>
-      <c r="O99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C100" s="8" t="s">
+      <c r="O99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D100" s="3" t="n">
@@ -4146,28 +4065,27 @@
       <c r="F100" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G100" s="3" t="n">
+      <c r="G100" s="7" t="n">
         <v>10.5</v>
       </c>
-      <c r="H100" s="0"/>
-      <c r="I100" s="0"/>
-      <c r="J100" s="0"/>
-      <c r="K100" s="0"/>
-      <c r="L100" s="0"/>
-      <c r="M100" s="2" t="s">
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="N100" s="0"/>
-      <c r="O100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" s="8" t="s">
+      <c r="O100" s="7"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D101" s="3" t="n">
@@ -4179,28 +4097,27 @@
       <c r="F101" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G101" s="3" t="n">
+      <c r="G101" s="7" t="n">
         <v>11.5</v>
       </c>
-      <c r="H101" s="0"/>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
-      <c r="K101" s="0"/>
-      <c r="L101" s="0"/>
-      <c r="M101" s="2" t="s">
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="N101" s="0"/>
-      <c r="O101" s="0"/>
+      <c r="O101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" s="8" t="s">
+      <c r="A102" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D102" s="3" t="n">
@@ -4212,28 +4129,27 @@
       <c r="F102" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G102" s="3" t="n">
+      <c r="G102" s="7" t="n">
         <v>11.5</v>
       </c>
-      <c r="H102" s="0"/>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
-      <c r="K102" s="0"/>
-      <c r="L102" s="0"/>
-      <c r="M102" s="2" t="s">
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N102" s="0"/>
-      <c r="O102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="O102" s="7"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D103" s="3" t="n">
@@ -4245,28 +4161,27 @@
       <c r="F103" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G103" s="3" t="n">
+      <c r="G103" s="7" t="n">
         <v>8.5</v>
       </c>
-      <c r="H103" s="0"/>
-      <c r="I103" s="0"/>
-      <c r="J103" s="0"/>
-      <c r="K103" s="0"/>
-      <c r="L103" s="0"/>
-      <c r="M103" s="2" t="s">
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N103" s="0"/>
-      <c r="O103" s="0"/>
-    </row>
-    <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="O103" s="7"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D104" s="3" t="n">
@@ -4278,28 +4193,27 @@
       <c r="F104" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G104" s="3" t="n">
+      <c r="G104" s="7" t="n">
         <v>8.62</v>
       </c>
-      <c r="H104" s="0"/>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
-      <c r="K104" s="0"/>
-      <c r="L104" s="0"/>
-      <c r="M104" s="2" t="s">
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N104" s="0"/>
-      <c r="O104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="O104" s="7"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D105" s="3" t="n">
@@ -4311,30 +4225,29 @@
       <c r="F105" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G105" s="3" t="n">
+      <c r="G105" s="7" t="n">
         <v>8.82</v>
       </c>
-      <c r="H105" s="0"/>
-      <c r="I105" s="0"/>
-      <c r="J105" s="0"/>
-      <c r="K105" s="0"/>
-      <c r="L105" s="0"/>
-      <c r="M105" s="2" t="s">
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N105" s="0"/>
-      <c r="O105" s="2" t="s">
+      <c r="O105" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="2" t="s">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D106" s="3" t="n">
@@ -4346,30 +4259,29 @@
       <c r="F106" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G106" s="3" t="n">
+      <c r="G106" s="7" t="n">
         <v>9.14</v>
       </c>
-      <c r="H106" s="0"/>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
-      <c r="K106" s="0"/>
-      <c r="L106" s="0"/>
-      <c r="M106" s="2" t="s">
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N106" s="0"/>
-      <c r="O106" s="2" t="s">
+      <c r="O106" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" s="2" t="s">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D107" s="3" t="n">
@@ -4381,30 +4293,29 @@
       <c r="F107" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G107" s="3" t="n">
+      <c r="G107" s="7" t="n">
         <v>9.36</v>
       </c>
-      <c r="H107" s="0"/>
-      <c r="I107" s="0"/>
-      <c r="J107" s="0"/>
-      <c r="K107" s="0"/>
-      <c r="L107" s="0"/>
-      <c r="M107" s="2" t="s">
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N107" s="0"/>
-      <c r="O107" s="2" t="s">
+      <c r="O107" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="2" t="s">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D108" s="3" t="n">
@@ -4416,30 +4327,29 @@
       <c r="F108" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G108" s="3" t="n">
+      <c r="G108" s="7" t="n">
         <v>9.79</v>
       </c>
-      <c r="H108" s="0"/>
-      <c r="I108" s="0"/>
-      <c r="J108" s="0"/>
-      <c r="K108" s="0"/>
-      <c r="L108" s="0"/>
-      <c r="M108" s="2" t="s">
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N108" s="0"/>
-      <c r="O108" s="2" t="s">
+      <c r="O108" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="2" t="s">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D109" s="3" t="n">
@@ -4451,30 +4361,29 @@
       <c r="F109" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G109" s="3" t="n">
+      <c r="G109" s="7" t="n">
         <v>9.79</v>
       </c>
-      <c r="H109" s="0"/>
-      <c r="I109" s="0"/>
-      <c r="J109" s="0"/>
-      <c r="K109" s="0"/>
-      <c r="L109" s="0"/>
-      <c r="M109" s="2" t="s">
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N109" s="0"/>
-      <c r="O109" s="2" t="s">
+      <c r="O109" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C110" s="2" t="s">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D110" s="3" t="n">
@@ -4486,30 +4395,29 @@
       <c r="F110" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G110" s="3" t="n">
+      <c r="G110" s="7" t="n">
         <v>9.92</v>
       </c>
-      <c r="H110" s="0"/>
-      <c r="I110" s="0"/>
-      <c r="J110" s="0"/>
-      <c r="K110" s="0"/>
-      <c r="L110" s="0"/>
-      <c r="M110" s="2" t="s">
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N110" s="0"/>
-      <c r="O110" s="2" t="s">
+      <c r="O110" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="2" t="s">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D111" s="3" t="n">
@@ -4521,30 +4429,29 @@
       <c r="F111" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G111" s="3" t="n">
+      <c r="G111" s="7" t="n">
         <v>10.24</v>
       </c>
-      <c r="H111" s="0"/>
-      <c r="I111" s="0"/>
-      <c r="J111" s="0"/>
-      <c r="K111" s="0"/>
-      <c r="L111" s="0"/>
-      <c r="M111" s="2" t="s">
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N111" s="0"/>
-      <c r="O111" s="2" t="s">
+      <c r="O111" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112" s="2" t="s">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D112" s="3" t="n">
@@ -4556,30 +4463,29 @@
       <c r="F112" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G112" s="3" t="n">
+      <c r="G112" s="7" t="n">
         <v>10.55</v>
       </c>
-      <c r="H112" s="0"/>
-      <c r="I112" s="0"/>
-      <c r="J112" s="0"/>
-      <c r="K112" s="0"/>
-      <c r="L112" s="0"/>
-      <c r="M112" s="2" t="s">
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N112" s="0"/>
-      <c r="O112" s="2" t="s">
+      <c r="O112" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C113" s="2" t="s">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D113" s="3" t="n">
@@ -4591,30 +4497,29 @@
       <c r="F113" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G113" s="3" t="n">
+      <c r="G113" s="7" t="n">
         <v>10.74</v>
       </c>
-      <c r="H113" s="0"/>
-      <c r="I113" s="0"/>
-      <c r="J113" s="0"/>
-      <c r="K113" s="0"/>
-      <c r="L113" s="0"/>
-      <c r="M113" s="2" t="s">
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N113" s="0"/>
-      <c r="O113" s="2" t="s">
+      <c r="O113" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" s="2" t="s">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D114" s="3" t="n">
@@ -4626,28 +4531,27 @@
       <c r="F114" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G114" s="3" t="n">
+      <c r="G114" s="7" t="n">
         <v>11.05</v>
       </c>
-      <c r="H114" s="0"/>
-      <c r="I114" s="0"/>
-      <c r="J114" s="0"/>
-      <c r="K114" s="0"/>
-      <c r="L114" s="0"/>
-      <c r="M114" s="2" t="s">
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N114" s="0"/>
-      <c r="O114" s="0"/>
-    </row>
-    <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="O114" s="7"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D115" s="3" t="n">
@@ -4659,28 +4563,27 @@
       <c r="F115" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G115" s="3" t="n">
+      <c r="G115" s="7" t="n">
         <v>12.25</v>
       </c>
-      <c r="H115" s="0"/>
-      <c r="I115" s="0"/>
-      <c r="J115" s="0"/>
-      <c r="K115" s="0"/>
-      <c r="L115" s="0"/>
-      <c r="M115" s="2" t="s">
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N115" s="0"/>
-      <c r="O115" s="0"/>
+      <c r="O115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="A116" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D116" s="3" t="n">
@@ -4692,28 +4595,27 @@
       <c r="F116" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G116" s="3" t="n">
+      <c r="G116" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H116" s="0"/>
-      <c r="I116" s="0"/>
-      <c r="J116" s="0"/>
-      <c r="K116" s="0"/>
-      <c r="L116" s="0"/>
-      <c r="M116" s="2" t="s">
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N116" s="0"/>
-      <c r="O116" s="0"/>
+      <c r="O116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="A117" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D117" s="3" t="n">
@@ -4725,28 +4627,27 @@
       <c r="F117" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G117" s="3" t="n">
+      <c r="G117" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="H117" s="0"/>
-      <c r="I117" s="0"/>
-      <c r="J117" s="0"/>
-      <c r="K117" s="0"/>
-      <c r="L117" s="0"/>
-      <c r="M117" s="2" t="s">
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N117" s="0"/>
-      <c r="O117" s="0"/>
+      <c r="O117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="A118" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D118" s="3" t="n">
@@ -4758,28 +4659,27 @@
       <c r="F118" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G118" s="3" t="n">
+      <c r="G118" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H118" s="0"/>
-      <c r="I118" s="0"/>
-      <c r="J118" s="0"/>
-      <c r="K118" s="0"/>
-      <c r="L118" s="0"/>
-      <c r="M118" s="2" t="s">
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N118" s="0"/>
-      <c r="O118" s="0"/>
-    </row>
-    <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="O118" s="7"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D119" s="3" t="n">
@@ -4791,28 +4691,27 @@
       <c r="F119" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="G119" s="3" t="n">
+      <c r="G119" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="H119" s="0"/>
-      <c r="I119" s="0"/>
-      <c r="J119" s="0"/>
-      <c r="K119" s="0"/>
-      <c r="L119" s="0"/>
-      <c r="M119" s="2" t="s">
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N119" s="0"/>
-      <c r="O119" s="0"/>
-    </row>
-    <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="O119" s="7"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D120" s="3" t="n">
@@ -4824,28 +4723,27 @@
       <c r="F120" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G120" s="3" t="n">
+      <c r="G120" s="7" t="n">
         <v>10.15</v>
       </c>
-      <c r="H120" s="0"/>
-      <c r="I120" s="0"/>
-      <c r="J120" s="0"/>
-      <c r="K120" s="0"/>
-      <c r="L120" s="0"/>
-      <c r="M120" s="2" t="s">
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="N120" s="0"/>
-      <c r="O120" s="0"/>
-    </row>
-    <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="O120" s="7"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D121" s="3" t="n">
@@ -4857,28 +4755,27 @@
       <c r="F121" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G121" s="3" t="n">
+      <c r="G121" s="7" t="n">
         <v>10.3</v>
       </c>
-      <c r="H121" s="0"/>
-      <c r="I121" s="0"/>
-      <c r="J121" s="0"/>
-      <c r="K121" s="0"/>
-      <c r="L121" s="0"/>
-      <c r="M121" s="2" t="s">
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="N121" s="0"/>
-      <c r="O121" s="0"/>
+      <c r="O121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="A122" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D122" s="3" t="n">
@@ -4888,30 +4785,31 @@
         <v>1</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G122" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="7" t="n">
         <v>10.5</v>
       </c>
-      <c r="H122" s="0"/>
-      <c r="I122" s="0"/>
-      <c r="J122" s="0"/>
-      <c r="K122" s="0"/>
-      <c r="L122" s="0"/>
-      <c r="M122" s="2" t="s">
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N122" s="0"/>
-      <c r="O122" s="0"/>
+      <c r="O122" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" s="2" t="s">
+      <c r="A123" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D123" s="3" t="n">
@@ -4923,28 +4821,27 @@
       <c r="F123" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G123" s="3" t="n">
+      <c r="G123" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="H123" s="0"/>
-      <c r="I123" s="0"/>
-      <c r="J123" s="0"/>
-      <c r="K123" s="0"/>
-      <c r="L123" s="0"/>
-      <c r="M123" s="2" t="s">
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N123" s="0"/>
-      <c r="O123" s="0"/>
+      <c r="O123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C124" s="2" t="s">
+      <c r="A124" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D124" s="3" t="n">
@@ -4956,28 +4853,27 @@
       <c r="F124" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G124" s="3" t="n">
+      <c r="G124" s="7" t="n">
         <v>13.5</v>
       </c>
-      <c r="H124" s="0"/>
-      <c r="I124" s="0"/>
-      <c r="J124" s="0"/>
-      <c r="K124" s="0"/>
-      <c r="L124" s="0"/>
-      <c r="M124" s="2" t="s">
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N124" s="0"/>
-      <c r="O124" s="0"/>
+      <c r="O124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="A125" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D125" s="3" t="n">
@@ -4989,29 +4885,28 @@
       <c r="F125" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G125" s="3" t="n">
+      <c r="G125" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H125" s="0"/>
-      <c r="I125" s="0"/>
-      <c r="J125" s="0"/>
-      <c r="K125" s="0"/>
-      <c r="L125" s="0"/>
-      <c r="M125" s="2" t="s">
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N125" s="0"/>
-      <c r="O125" s="0"/>
-    </row>
-    <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>110</v>
+      <c r="O125" s="7"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D126" s="3" t="n">
         <v>2016</v>
@@ -5022,31 +4917,30 @@
       <c r="F126" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G126" s="3" t="n">
+      <c r="G126" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="H126" s="0"/>
-      <c r="I126" s="0"/>
-      <c r="J126" s="0"/>
-      <c r="K126" s="0"/>
-      <c r="L126" s="0"/>
-      <c r="M126" s="2" t="s">
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O126" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="N126" s="0"/>
-      <c r="O126" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D127" s="3" t="n">
         <v>2017</v>
@@ -5057,29 +4951,28 @@
       <c r="F127" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G127" s="3" t="n">
+      <c r="G127" s="7" t="n">
         <v>11.1</v>
       </c>
-      <c r="H127" s="0"/>
-      <c r="I127" s="0"/>
-      <c r="J127" s="0"/>
-      <c r="K127" s="0"/>
-      <c r="L127" s="0"/>
-      <c r="M127" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N127" s="0"/>
-      <c r="O127" s="0"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>110</v>
+      <c r="A128" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D128" s="3" t="n">
         <v>2017</v>
@@ -5090,29 +4983,28 @@
       <c r="F128" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G128" s="3" t="n">
+      <c r="G128" s="7" t="n">
         <v>11.1</v>
       </c>
-      <c r="H128" s="0"/>
-      <c r="I128" s="0"/>
-      <c r="J128" s="0"/>
-      <c r="K128" s="0"/>
-      <c r="L128" s="0"/>
-      <c r="M128" s="2" t="s">
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N128" s="0"/>
-      <c r="O128" s="0"/>
-    </row>
-    <row r="129" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O128" s="7"/>
+    </row>
+    <row r="129" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>114</v>
+      <c r="C129" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D129" s="3" t="n">
         <v>2004</v>
@@ -5123,29 +5015,28 @@
       <c r="F129" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G129" s="3" t="n">
+      <c r="G129" s="7" t="n">
         <v>8.5</v>
       </c>
-      <c r="H129" s="0"/>
-      <c r="I129" s="0"/>
-      <c r="J129" s="0"/>
-      <c r="K129" s="0"/>
-      <c r="L129" s="0"/>
-      <c r="M129" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N129" s="0"/>
-      <c r="O129" s="0"/>
-    </row>
-    <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O129" s="7"/>
+    </row>
+    <row r="130" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>114</v>
+      <c r="C130" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D130" s="3" t="n">
         <v>2006</v>
@@ -5156,29 +5047,28 @@
       <c r="F130" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G130" s="3" t="n">
+      <c r="G130" s="7" t="n">
         <v>9.5</v>
       </c>
-      <c r="H130" s="0"/>
-      <c r="I130" s="0"/>
-      <c r="J130" s="0"/>
-      <c r="K130" s="0"/>
-      <c r="L130" s="0"/>
-      <c r="M130" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N130" s="0"/>
-      <c r="O130" s="0"/>
-    </row>
-    <row r="131" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O130" s="7"/>
+    </row>
+    <row r="131" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>114</v>
+      <c r="C131" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D131" s="3" t="n">
         <v>2012</v>
@@ -5189,29 +5079,28 @@
       <c r="F131" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G131" s="3" t="n">
+      <c r="G131" s="7" t="n">
         <v>10.29</v>
       </c>
-      <c r="H131" s="0"/>
-      <c r="I131" s="0"/>
-      <c r="J131" s="0"/>
-      <c r="K131" s="0"/>
-      <c r="L131" s="0"/>
-      <c r="M131" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N131" s="0"/>
-      <c r="O131" s="0"/>
-    </row>
-    <row r="132" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O131" s="7"/>
+    </row>
+    <row r="132" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>114</v>
+      <c r="C132" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D132" s="3" t="n">
         <v>2013</v>
@@ -5222,29 +5111,28 @@
       <c r="F132" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G132" s="3" t="n">
+      <c r="G132" s="7" t="n">
         <v>10.51</v>
       </c>
-      <c r="H132" s="0"/>
-      <c r="I132" s="0"/>
-      <c r="J132" s="0"/>
-      <c r="K132" s="0"/>
-      <c r="L132" s="0"/>
-      <c r="M132" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N132" s="0"/>
-      <c r="O132" s="0"/>
-    </row>
-    <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O132" s="7"/>
+    </row>
+    <row r="133" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>114</v>
+      <c r="C133" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D133" s="3" t="n">
         <v>2014</v>
@@ -5255,29 +5143,28 @@
       <c r="F133" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G133" s="3" t="n">
+      <c r="G133" s="7" t="n">
         <v>10.66</v>
       </c>
-      <c r="H133" s="0"/>
-      <c r="I133" s="0"/>
-      <c r="J133" s="0"/>
-      <c r="K133" s="0"/>
-      <c r="L133" s="0"/>
-      <c r="M133" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N133" s="0"/>
-      <c r="O133" s="0"/>
-    </row>
-    <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O133" s="7"/>
+    </row>
+    <row r="134" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>114</v>
+      <c r="C134" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D134" s="3" t="n">
         <v>2015</v>
@@ -5288,29 +5175,28 @@
       <c r="F134" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G134" s="3" t="n">
+      <c r="G134" s="7" t="n">
         <v>10.84</v>
       </c>
-      <c r="H134" s="0"/>
-      <c r="I134" s="0"/>
-      <c r="J134" s="0"/>
-      <c r="K134" s="0"/>
-      <c r="L134" s="0"/>
-      <c r="M134" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="N134" s="0"/>
-      <c r="O134" s="0"/>
-    </row>
-    <row r="135" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O134" s="7"/>
+    </row>
+    <row r="135" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>114</v>
+      <c r="C135" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D135" s="3" t="n">
         <v>2016</v>
@@ -5321,29 +5207,28 @@
       <c r="F135" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G135" s="3" t="n">
+      <c r="G135" s="7" t="n">
         <v>10.91</v>
       </c>
-      <c r="H135" s="0"/>
-      <c r="I135" s="0"/>
-      <c r="J135" s="0"/>
-      <c r="K135" s="0"/>
-      <c r="L135" s="0"/>
-      <c r="M135" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N135" s="0"/>
-      <c r="O135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O135" s="7"/>
+    </row>
+    <row r="136" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>114</v>
+      <c r="C136" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D136" s="3" t="n">
         <v>2017</v>
@@ -5354,29 +5239,28 @@
       <c r="F136" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G136" s="3" t="n">
+      <c r="G136" s="7" t="n">
         <v>11.09</v>
       </c>
-      <c r="H136" s="0"/>
-      <c r="I136" s="0"/>
-      <c r="J136" s="0"/>
-      <c r="K136" s="0"/>
-      <c r="L136" s="0"/>
-      <c r="M136" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N136" s="0"/>
-      <c r="O136" s="0"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="n">
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O136" s="7"/>
+    </row>
+    <row r="137" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>114</v>
+      <c r="C137" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D137" s="3" t="n">
         <v>2017</v>
@@ -5387,29 +5271,28 @@
       <c r="F137" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G137" s="3" t="n">
+      <c r="G137" s="7" t="n">
         <v>11.09</v>
       </c>
-      <c r="H137" s="0"/>
-      <c r="I137" s="0"/>
-      <c r="J137" s="0"/>
-      <c r="K137" s="0"/>
-      <c r="L137" s="0"/>
-      <c r="M137" s="2" t="s">
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N137" s="0"/>
-      <c r="O137" s="0"/>
-    </row>
-    <row r="138" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>121</v>
+      <c r="C138" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="D138" s="3" t="n">
         <v>2014</v>
@@ -5420,31 +5303,31 @@
       <c r="F138" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="G138" s="3" t="n">
+      <c r="G138" s="7" t="n">
         <v>10.66</v>
       </c>
       <c r="H138" s="3"/>
-      <c r="I138" s="0"/>
-      <c r="J138" s="0"/>
-      <c r="K138" s="0"/>
-      <c r="L138" s="0"/>
-      <c r="M138" s="2" t="s">
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O138" s="7"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O138" s="0"/>
-    </row>
-    <row r="139" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D139" s="3" t="n">
         <v>2015</v>
@@ -5455,33 +5338,33 @@
       <c r="F139" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G139" s="3" t="n">
+      <c r="G139" s="7" t="n">
         <v>10.84</v>
       </c>
       <c r="H139" s="3" t="n">
         <v>3.25</v>
       </c>
-      <c r="I139" s="0"/>
-      <c r="J139" s="0"/>
-      <c r="K139" s="0"/>
-      <c r="L139" s="0"/>
-      <c r="M139" s="2" t="s">
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O139" s="7"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D140" s="3" t="n">
         <v>2016</v>
@@ -5492,30 +5375,30 @@
       <c r="F140" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G140" s="3" t="n">
+      <c r="G140" s="7" t="n">
         <v>10.91</v>
       </c>
       <c r="H140" s="3" t="n">
         <v>3.27</v>
       </c>
-      <c r="I140" s="0"/>
-      <c r="J140" s="0"/>
-      <c r="K140" s="0"/>
-      <c r="L140" s="0"/>
-      <c r="M140" s="2" t="s">
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O140" s="7"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="O140" s="0"/>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D141" s="3" t="n">
         <v>2017</v>
@@ -5526,30 +5409,30 @@
       <c r="F141" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G141" s="3" t="n">
+      <c r="G141" s="7" t="n">
         <v>11.09</v>
       </c>
       <c r="H141" s="3" t="n">
         <v>3.32</v>
       </c>
-      <c r="I141" s="0"/>
-      <c r="J141" s="0"/>
-      <c r="K141" s="0"/>
-      <c r="L141" s="0"/>
-      <c r="M141" s="2" t="s">
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O141" s="7"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="O141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D142" s="3" t="n">
         <v>2017</v>
@@ -5560,30 +5443,30 @@
       <c r="F142" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G142" s="3" t="n">
+      <c r="G142" s="7" t="n">
         <v>11.09</v>
       </c>
       <c r="H142" s="3" t="n">
         <v>3.32</v>
       </c>
-      <c r="I142" s="0"/>
-      <c r="J142" s="0"/>
-      <c r="K142" s="0"/>
-      <c r="L142" s="0"/>
-      <c r="M142" s="2" t="s">
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O142" s="0"/>
+      <c r="O142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>124</v>
+      <c r="A143" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D143" s="3" t="n">
         <v>2016</v>
@@ -5594,33 +5477,34 @@
       <c r="F143" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G143" s="3" t="n">
+      <c r="G143" s="7" t="n">
         <v>10.5</v>
       </c>
-      <c r="I143" s="0"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
       <c r="J143" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="K143" s="0"/>
-      <c r="L143" s="2" t="n">
+      <c r="K143" s="7"/>
+      <c r="L143" s="7" t="n">
         <v>13.25</v>
       </c>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O143" s="2" t="s">
+      <c r="O143" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>124</v>
+      <c r="A144" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D144" s="3" t="n">
         <v>2017</v>
@@ -5631,31 +5515,32 @@
       <c r="F144" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G144" s="3" t="n">
+      <c r="G144" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="I144" s="0"/>
-      <c r="J144" s="2" t="n">
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7" t="n">
         <v>10.5</v>
       </c>
-      <c r="K144" s="0"/>
-      <c r="L144" s="0"/>
-      <c r="M144" s="2" t="s">
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O144" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="O144" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D145" s="3" t="n">
         <v>2018</v>
@@ -5666,31 +5551,32 @@
       <c r="F145" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G145" s="3" t="n">
+      <c r="G145" s="7" t="n">
         <v>13.25</v>
       </c>
-      <c r="I145" s="0"/>
-      <c r="J145" s="2" t="n">
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="K145" s="0"/>
-      <c r="L145" s="0"/>
-      <c r="M145" s="2" t="s">
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O145" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="O145" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D146" s="3" t="n">
         <v>2019</v>
@@ -5701,31 +5587,32 @@
       <c r="F146" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G146" s="3" t="n">
+      <c r="G146" s="7" t="n">
         <v>14.25</v>
       </c>
-      <c r="I146" s="0"/>
-      <c r="J146" s="2" t="n">
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7" t="n">
         <v>13.25</v>
       </c>
-      <c r="K146" s="0"/>
-      <c r="L146" s="0"/>
-      <c r="M146" s="2" t="s">
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O146" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D147" s="3" t="n">
         <v>2020</v>
@@ -5736,31 +5623,32 @@
       <c r="F147" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G147" s="3" t="n">
+      <c r="G147" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="I147" s="0"/>
-      <c r="J147" s="2" t="n">
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7" t="n">
         <v>14.25</v>
       </c>
-      <c r="K147" s="0"/>
-      <c r="L147" s="0"/>
-      <c r="M147" s="2" t="s">
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O147" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D148" s="3" t="n">
         <v>2021</v>
@@ -5771,31 +5659,32 @@
       <c r="F148" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G148" s="3" t="n">
+      <c r="G148" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="I148" s="0"/>
-      <c r="J148" s="2" t="n">
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="K148" s="0"/>
-      <c r="L148" s="0"/>
-      <c r="M148" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O148" s="2" t="s">
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O148" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C149" s="8" t="s">
+      <c r="B149" s="10" t="s">
         <v>127</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D149" s="3" t="n">
         <v>2014</v>
@@ -5806,29 +5695,30 @@
       <c r="F149" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G149" s="3" t="n">
+      <c r="G149" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="I149" s="0"/>
-      <c r="J149" s="0"/>
-      <c r="K149" s="0"/>
-      <c r="L149" s="0"/>
-      <c r="M149" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O149" s="2" t="s">
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O149" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C150" s="8" t="s">
+      <c r="B150" s="10" t="s">
         <v>127</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D150" s="3" t="n">
         <v>2015</v>
@@ -5839,29 +5729,30 @@
       <c r="F150" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G150" s="3" t="n">
+      <c r="G150" s="7" t="n">
         <v>15.24</v>
       </c>
-      <c r="I150" s="0"/>
-      <c r="J150" s="0"/>
-      <c r="K150" s="0"/>
-      <c r="L150" s="0"/>
-      <c r="M150" s="2" t="s">
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O150" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O150" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="151" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C151" s="8" t="s">
+      <c r="B151" s="10" t="s">
         <v>127</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D151" s="3" t="n">
         <v>2016</v>
@@ -5872,29 +5763,30 @@
       <c r="F151" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G151" s="3" t="n">
+      <c r="G151" s="7" t="n">
         <v>15.24</v>
       </c>
-      <c r="I151" s="0"/>
-      <c r="J151" s="0"/>
-      <c r="K151" s="0"/>
-      <c r="L151" s="0"/>
-      <c r="M151" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O151" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O151" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C152" s="8" t="s">
+      <c r="B152" s="10" t="s">
         <v>127</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D152" s="3" t="n">
         <v>2017</v>
@@ -5905,29 +5797,30 @@
       <c r="F152" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G152" s="3" t="n">
+      <c r="G152" s="7" t="n">
         <v>15.34</v>
       </c>
-      <c r="I152" s="0"/>
-      <c r="J152" s="0"/>
-      <c r="K152" s="0"/>
-      <c r="L152" s="0"/>
-      <c r="M152" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O152" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7" t="n">
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O152" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C153" s="8" t="s">
+      <c r="B153" s="10" t="s">
         <v>127</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D153" s="3" t="n">
         <v>2017</v>
@@ -5938,27 +5831,28 @@
       <c r="F153" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G153" s="3" t="n">
+      <c r="G153" s="7" t="n">
         <v>15.34</v>
       </c>
-      <c r="I153" s="0"/>
-      <c r="J153" s="0"/>
-      <c r="K153" s="0"/>
-      <c r="L153" s="0"/>
-      <c r="M153" s="2" t="s">
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O153" s="7"/>
+    </row>
+    <row r="154" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>133</v>
+      <c r="B154" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="D154" s="3" t="n">
         <v>2015</v>
@@ -5969,9 +5863,10 @@
       <c r="F154" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G154" s="3" t="n">
+      <c r="G154" s="7" t="n">
         <v>11</v>
       </c>
+      <c r="H154" s="7"/>
       <c r="I154" s="3" t="n">
         <v>11</v>
       </c>
@@ -5982,22 +5877,22 @@
         <v>11</v>
       </c>
       <c r="L154" s="3"/>
-      <c r="M154" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O154" s="2" t="s">
+      <c r="M154" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O154" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>133</v>
+      <c r="B155" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="D155" s="3" t="n">
         <v>2016</v>
@@ -6008,9 +5903,10 @@
       <c r="F155" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G155" s="3" t="n">
+      <c r="G155" s="7" t="n">
         <v>13</v>
       </c>
+      <c r="H155" s="7"/>
       <c r="I155" s="3" t="n">
         <v>12.5</v>
       </c>
@@ -6021,22 +5917,22 @@
         <v>12</v>
       </c>
       <c r="L155" s="3"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O155" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="O155" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D156" s="3" t="n">
         <v>2017</v>
@@ -6047,9 +5943,10 @@
       <c r="F156" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G156" s="3" t="n">
+      <c r="G156" s="7" t="n">
         <v>15</v>
       </c>
+      <c r="H156" s="7"/>
       <c r="I156" s="3" t="n">
         <v>13.5</v>
       </c>
@@ -6060,22 +5957,22 @@
         <v>13</v>
       </c>
       <c r="L156" s="3"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O156" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C157" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="O156" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D157" s="3" t="n">
         <v>2018</v>
@@ -6086,7 +5983,7 @@
       <c r="F157" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G157" s="0"/>
+      <c r="H157" s="7"/>
       <c r="I157" s="3" t="n">
         <v>15</v>
       </c>
@@ -6097,22 +5994,22 @@
         <v>14</v>
       </c>
       <c r="L157" s="3"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O157" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" s="2" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="O157" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D158" s="3" t="n">
         <v>2019</v>
@@ -6123,7 +6020,7 @@
       <c r="F158" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G158" s="0"/>
+      <c r="H158" s="7"/>
       <c r="J158" s="3" t="n">
         <v>12</v>
       </c>
@@ -6131,22 +6028,22 @@
         <v>15</v>
       </c>
       <c r="L158" s="3"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O158" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="O158" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D159" s="3" t="n">
         <v>2020</v>
@@ -6157,7 +6054,7 @@
       <c r="F159" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G159" s="0"/>
+      <c r="H159" s="7"/>
       <c r="J159" s="3" t="n">
         <v>13.5</v>
       </c>
@@ -6165,22 +6062,22 @@
         <v>15.75</v>
       </c>
       <c r="L159" s="3"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O159" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="160" s="2" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C160" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="O159" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D160" s="3" t="n">
         <v>2021</v>
@@ -6191,28 +6088,28 @@
       <c r="F160" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G160" s="0"/>
+      <c r="H160" s="7"/>
       <c r="J160" s="3" t="n">
         <v>15</v>
       </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O160" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="161" s="2" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="O160" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D161" s="3" t="n">
         <v>2022</v>
@@ -6223,28 +6120,28 @@
       <c r="F161" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G161" s="0"/>
+      <c r="H161" s="7"/>
       <c r="J161" s="3" t="n">
         <v>15.75</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O161" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" s="2" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="O161" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D162" s="3" t="n">
         <v>2023</v>
@@ -6255,28 +6152,28 @@
       <c r="F162" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G162" s="0"/>
+      <c r="H162" s="7"/>
       <c r="J162" s="3" t="n">
         <v>16.5</v>
       </c>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O162" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163" s="2" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="O162" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D163" s="3" t="n">
         <v>2024</v>
@@ -6287,28 +6184,28 @@
       <c r="F163" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G163" s="0"/>
+      <c r="H163" s="7"/>
       <c r="J163" s="3" t="n">
         <v>17.25</v>
       </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
-      <c r="M163" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O163" s="2" t="s">
+      <c r="M163" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C164" s="8" t="s">
+      <c r="O163" s="7" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D164" s="3" t="n">
         <v>2015</v>
@@ -6319,23 +6216,24 @@
       <c r="F164" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G164" s="3" t="n">
+      <c r="G164" s="7" t="n">
         <v>10.3</v>
       </c>
-      <c r="M164" s="2" t="s">
+      <c r="H164" s="7"/>
+      <c r="M164" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O164" s="7"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="O164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D165" s="3" t="n">
         <v>2016</v>
@@ -6346,23 +6244,24 @@
       <c r="F165" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G165" s="3" t="n">
+      <c r="G165" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="M165" s="2" t="s">
+      <c r="H165" s="7"/>
+      <c r="M165" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O165" s="0"/>
+      <c r="O165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>136</v>
+      <c r="A166" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D166" s="3" t="n">
         <v>2017</v>
@@ -6373,23 +6272,24 @@
       <c r="F166" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G166" s="3" t="n">
+      <c r="G166" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="M166" s="2" t="s">
+      <c r="H166" s="7"/>
+      <c r="M166" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O166" s="7"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="O166" s="0"/>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D167" s="3" t="n">
         <v>2018</v>
@@ -6400,23 +6300,24 @@
       <c r="F167" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G167" s="3" t="n">
+      <c r="G167" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="M167" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O167" s="0"/>
-    </row>
-    <row r="168" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H167" s="7"/>
+      <c r="M167" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O167" s="7"/>
+    </row>
+    <row r="168" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>138</v>
+      <c r="B168" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="D168" s="3" t="n">
         <v>2016</v>
@@ -6427,23 +6328,24 @@
       <c r="F168" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G168" s="3" t="n">
+      <c r="G168" s="7" t="n">
         <v>10.35</v>
       </c>
-      <c r="M168" s="2" t="s">
+      <c r="H168" s="7"/>
+      <c r="M168" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="O168" s="7"/>
+    </row>
+    <row r="169" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C169" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="O168" s="0"/>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="D169" s="3" t="n">
         <v>2017</v>
@@ -6454,23 +6356,24 @@
       <c r="F169" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G169" s="3" t="n">
+      <c r="G169" s="7" t="n">
         <v>11.15</v>
       </c>
-      <c r="M169" s="2" t="s">
+      <c r="H169" s="7"/>
+      <c r="M169" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="O169" s="7"/>
+    </row>
+    <row r="170" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="O169" s="0"/>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="D170" s="3" t="n">
         <v>2018</v>
@@ -6481,23 +6384,24 @@
       <c r="F170" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G170" s="3" t="n">
+      <c r="G170" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="M170" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O170" s="0"/>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="n">
+      <c r="H170" s="7"/>
+      <c r="M170" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="O170" s="7"/>
+    </row>
+    <row r="171" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>140</v>
+      <c r="C171" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="D171" s="3" t="n">
         <v>2017</v>
@@ -6508,31 +6412,26 @@
       <c r="F171" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G171" s="3" t="n">
+      <c r="G171" s="7" t="n">
         <v>8.2</v>
       </c>
       <c r="H171" s="3" t="n">
         <v>4.92</v>
       </c>
-      <c r="I171" s="0"/>
-      <c r="J171" s="0"/>
-      <c r="K171" s="0"/>
-      <c r="L171" s="0"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O171" s="7"/>
+    </row>
+    <row r="172" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="N171" s="0"/>
-      <c r="O171" s="0"/>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="D172" s="3" t="n">
         <v>2018</v>
@@ -6543,31 +6442,26 @@
       <c r="F172" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G172" s="3" t="n">
+      <c r="G172" s="7" t="n">
         <v>9.15</v>
       </c>
       <c r="H172" s="3" t="n">
         <v>5.49</v>
       </c>
-      <c r="I172" s="0"/>
-      <c r="J172" s="0"/>
-      <c r="K172" s="0"/>
-      <c r="L172" s="0"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O172" s="7"/>
+    </row>
+    <row r="173" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="N172" s="0"/>
-      <c r="O172" s="0"/>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="D173" s="3" t="n">
         <v>2019</v>
@@ -6578,31 +6472,26 @@
       <c r="F173" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G173" s="3" t="n">
+      <c r="G173" s="7" t="n">
         <v>10.1</v>
       </c>
       <c r="H173" s="3" t="n">
         <v>6.06</v>
       </c>
-      <c r="I173" s="0"/>
-      <c r="J173" s="0"/>
-      <c r="K173" s="0"/>
-      <c r="L173" s="0"/>
-      <c r="M173" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N173" s="0"/>
-      <c r="O173" s="0"/>
-    </row>
-    <row r="174" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M173" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O173" s="7"/>
+    </row>
+    <row r="174" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>126</v>
+      <c r="B174" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D174" s="3" t="n">
         <v>2005</v>
@@ -6613,26 +6502,26 @@
       <c r="F174" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G174" s="3" t="n">
+      <c r="G174" s="7" t="n">
         <v>6.6</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="M174" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O174" s="0"/>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M174" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O174" s="7"/>
+    </row>
+    <row r="175" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>126</v>
+      <c r="B175" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D175" s="3" t="n">
         <v>2006</v>
@@ -6643,26 +6532,26 @@
       <c r="F175" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G175" s="3" t="n">
+      <c r="G175" s="7" t="n">
         <v>7</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="M175" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O175" s="0"/>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M175" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O175" s="7"/>
+    </row>
+    <row r="176" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B176" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>126</v>
+      <c r="B176" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D176" s="3" t="n">
         <v>2008</v>
@@ -6673,26 +6562,26 @@
       <c r="F176" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G176" s="3" t="n">
+      <c r="G176" s="7" t="n">
         <v>7.55</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="M176" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O176" s="0"/>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M176" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O176" s="7"/>
+    </row>
+    <row r="177" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>126</v>
+      <c r="B177" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D177" s="3" t="n">
         <v>2009</v>
@@ -6703,28 +6592,28 @@
       <c r="F177" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G177" s="3" t="n">
+      <c r="G177" s="7" t="n">
         <v>8.25</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="M177" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="O177" s="8" t="s">
+      <c r="M177" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O177" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B178" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>126</v>
+      <c r="B178" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D178" s="3" t="n">
         <v>2014</v>
@@ -6735,25 +6624,25 @@
       <c r="F178" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G178" s="3" t="n">
+      <c r="G178" s="7" t="n">
         <v>9.5</v>
       </c>
       <c r="H178" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="M178" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M178" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>126</v>
+      <c r="B179" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D179" s="3" t="n">
         <v>2015</v>
@@ -6764,25 +6653,25 @@
       <c r="F179" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G179" s="3" t="n">
+      <c r="G179" s="7" t="n">
         <v>10.5</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="M179" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7" t="n">
+      <c r="M179" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>126</v>
+      <c r="B180" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D180" s="3" t="n">
         <v>2016</v>
@@ -6793,25 +6682,25 @@
       <c r="F180" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G180" s="3" t="n">
+      <c r="G180" s="7" t="n">
         <v>11.5</v>
       </c>
       <c r="H180" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="M180" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="7" t="n">
+      <c r="M180" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>126</v>
+      <c r="B181" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D181" s="3" t="n">
         <v>2017</v>
@@ -6822,25 +6711,25 @@
       <c r="F181" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G181" s="3" t="n">
+      <c r="G181" s="7" t="n">
         <v>12.5</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>3.33</v>
       </c>
-      <c r="M181" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7" t="n">
+      <c r="M181" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B182" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>126</v>
+      <c r="B182" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D182" s="3" t="n">
         <v>2018</v>
@@ -6851,25 +6740,25 @@
       <c r="F182" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G182" s="3" t="n">
+      <c r="G182" s="7" t="n">
         <v>13.25</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>3.89</v>
       </c>
-      <c r="M182" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7" t="n">
+      <c r="M182" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B183" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>126</v>
+      <c r="B183" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D183" s="3" t="n">
         <v>2019</v>
@@ -6880,25 +6769,25 @@
       <c r="F183" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G183" s="3" t="n">
+      <c r="G183" s="7" t="n">
         <v>14</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>4.45</v>
       </c>
-      <c r="M183" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7" t="n">
+      <c r="M183" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>126</v>
+      <c r="B184" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D184" s="3" t="n">
         <v>2020</v>
@@ -6909,490 +6798,395 @@
       <c r="F184" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G184" s="3" t="n">
+      <c r="G184" s="7" t="n">
         <v>15</v>
       </c>
       <c r="H184" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="M184" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="185" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="9" t="n">
+      <c r="M184" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B185" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C185" s="11" t="s">
+      <c r="B185" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D185" s="12" t="n">
+      <c r="C185" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D185" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E185" s="12" t="n">
+      <c r="E185" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F185" s="12" t="n">
+      <c r="F185" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G185" s="12" t="n">
+      <c r="G185" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="H185" s="13"/>
-      <c r="I185" s="13"/>
-      <c r="J185" s="13"/>
-      <c r="K185" s="13"/>
-      <c r="L185" s="13"/>
-      <c r="M185" s="10" t="s">
+      <c r="M185" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C186" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="N185" s="13"/>
-      <c r="O185" s="13"/>
-    </row>
-    <row r="186" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="9" t="n">
+      <c r="D186" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F186" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G186" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B186" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C186" s="11" t="s">
+      <c r="B187" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D186" s="12" t="n">
+      <c r="C187" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D187" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F187" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G187" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D188" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E188" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F188" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G188" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D189" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E189" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F189" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G189" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="M189" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D190" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E190" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F190" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G190" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J190" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="M190" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D191" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E186" s="12" t="n">
+      <c r="E191" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F186" s="12" t="n">
+      <c r="F191" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G186" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="H186" s="13"/>
-      <c r="I186" s="13"/>
-      <c r="J186" s="13"/>
-      <c r="K186" s="13"/>
-      <c r="L186" s="13"/>
-      <c r="M186" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N186" s="13"/>
-      <c r="O186" s="13"/>
-    </row>
-    <row r="187" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="9" t="n">
+      <c r="G191" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J191" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M191" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B187" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C187" s="11" t="s">
+      <c r="B192" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D187" s="12" t="n">
+      <c r="C192" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D192" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E187" s="12" t="n">
+      <c r="E192" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F187" s="12" t="n">
+      <c r="F192" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G187" s="12" t="n">
+      <c r="G192" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J192" s="2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M192" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="193" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D193" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E193" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="H187" s="13"/>
-      <c r="I187" s="13"/>
-      <c r="J187" s="13"/>
-      <c r="K187" s="13"/>
-      <c r="L187" s="13"/>
-      <c r="M187" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N187" s="13"/>
-      <c r="O187" s="13"/>
-    </row>
-    <row r="188" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="9" t="n">
+      <c r="F193" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="J193" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M193" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B188" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C188" s="11" t="s">
+      <c r="B194" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D188" s="12" t="n">
+      <c r="C194" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D194" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E194" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F194" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G194" s="3" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="M194" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D195" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E195" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F195" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G195" s="3" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="M195" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D196" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E196" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F196" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G196" s="3" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="M196" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D197" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E188" s="12" t="n">
+      <c r="E197" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F188" s="12" t="n">
+      <c r="F197" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G188" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="13"/>
-      <c r="L188" s="13"/>
-      <c r="M188" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N188" s="13"/>
-      <c r="O188" s="13"/>
-    </row>
-    <row r="189" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="9" t="n">
+      <c r="G197" s="3" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B189" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C189" s="11" t="s">
+      <c r="B198" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D189" s="12" t="n">
+      <c r="C198" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D198" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E189" s="12" t="n">
+      <c r="E198" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="F189" s="12" t="n">
+      <c r="F198" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G189" s="12" t="n">
-        <v>14</v>
-      </c>
-      <c r="H189" s="13"/>
-      <c r="I189" s="13"/>
-      <c r="J189" s="13"/>
-      <c r="K189" s="13"/>
-      <c r="L189" s="13"/>
-      <c r="M189" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N189" s="13"/>
-      <c r="O189" s="13"/>
-    </row>
-    <row r="190" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C190" s="11" t="s">
+      <c r="G198" s="3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M198" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D190" s="12" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E190" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F190" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G190" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="H190" s="13"/>
-      <c r="I190" s="13"/>
-      <c r="J190" s="13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K190" s="13"/>
-      <c r="L190" s="13"/>
-      <c r="M190" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N190" s="13"/>
-      <c r="O190" s="13"/>
-    </row>
-    <row r="191" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D191" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E191" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F191" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G191" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="H191" s="13"/>
-      <c r="I191" s="13"/>
-      <c r="J191" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="K191" s="13"/>
-      <c r="L191" s="13"/>
-      <c r="M191" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N191" s="13"/>
-      <c r="O191" s="13"/>
-    </row>
-    <row r="192" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D192" s="12" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E192" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F192" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G192" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="H192" s="13"/>
-      <c r="I192" s="13"/>
-      <c r="J192" s="13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K192" s="13"/>
-      <c r="L192" s="13"/>
-      <c r="M192" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N192" s="13"/>
-      <c r="O192" s="13"/>
-    </row>
-    <row r="193" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D193" s="12" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E193" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F193" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G193" s="12"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="13"/>
-      <c r="J193" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="K193" s="13"/>
-      <c r="L193" s="13"/>
-      <c r="M193" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N193" s="13"/>
-      <c r="O193" s="13"/>
-    </row>
-    <row r="194" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B194" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D194" s="12" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E194" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F194" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G194" s="12" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="H194" s="13"/>
-      <c r="I194" s="13"/>
-      <c r="J194" s="13"/>
-      <c r="K194" s="13"/>
-      <c r="L194" s="13"/>
-      <c r="M194" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N194" s="13"/>
-      <c r="O194" s="13"/>
-    </row>
-    <row r="195" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B195" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D195" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E195" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F195" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G195" s="12" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="H195" s="13"/>
-      <c r="I195" s="13"/>
-      <c r="J195" s="13"/>
-      <c r="K195" s="13"/>
-      <c r="L195" s="13"/>
-      <c r="M195" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N195" s="13"/>
-      <c r="O195" s="13"/>
-    </row>
-    <row r="196" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D196" s="12" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E196" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F196" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G196" s="12" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H196" s="13"/>
-      <c r="I196" s="13"/>
-      <c r="J196" s="13"/>
-      <c r="K196" s="13"/>
-      <c r="L196" s="13"/>
-      <c r="M196" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N196" s="13"/>
-      <c r="O196" s="13"/>
-    </row>
-    <row r="197" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B197" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D197" s="12" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E197" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F197" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G197" s="12" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H197" s="13"/>
-      <c r="I197" s="13"/>
-      <c r="J197" s="13"/>
-      <c r="K197" s="13"/>
-      <c r="L197" s="13"/>
-      <c r="M197" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N197" s="13"/>
-      <c r="O197" s="13"/>
-    </row>
-    <row r="198" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D198" s="12" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E198" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F198" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G198" s="12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H198" s="13"/>
-      <c r="I198" s="13"/>
-      <c r="J198" s="13"/>
-      <c r="K198" s="13"/>
-      <c r="L198" s="13"/>
-      <c r="M198" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N198" s="13"/>
-      <c r="O198" s="13"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="9" t="n">
+      <c r="A199" s="11" t="n">
         <v>41</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>87</v>
@@ -7410,15 +7204,15 @@
         <v>9.75</v>
       </c>
       <c r="M199" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>87</v>
@@ -7436,15 +7230,15 @@
         <v>11.25</v>
       </c>
       <c r="M200" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>87</v>
@@ -7462,15 +7256,15 @@
         <v>12</v>
       </c>
       <c r="M201" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>87</v>
@@ -7488,15 +7282,15 @@
         <v>12.5</v>
       </c>
       <c r="M202" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>87</v>
@@ -7514,15 +7308,15 @@
         <v>13.25</v>
       </c>
       <c r="M203" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>87</v>
@@ -7540,15 +7334,15 @@
         <v>14</v>
       </c>
       <c r="M204" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>87</v>
@@ -7566,18 +7360,18 @@
         <v>14.75</v>
       </c>
       <c r="M205" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C206" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D206" s="3" t="n">
         <v>2016</v>
@@ -7589,21 +7383,21 @@
         <v>1</v>
       </c>
       <c r="G206" s="3" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="M206" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C207" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D207" s="3" t="n">
         <v>2017</v>
@@ -7615,21 +7409,21 @@
         <v>1</v>
       </c>
       <c r="G207" s="3" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="M207" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C208" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D208" s="3" t="n">
         <v>2018</v>
@@ -7641,21 +7435,21 @@
         <v>1</v>
       </c>
       <c r="G208" s="3" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="M208" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C209" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D209" s="3" t="n">
         <v>2019</v>
@@ -7667,21 +7461,21 @@
         <v>1</v>
       </c>
       <c r="G209" s="3" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="M209" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D210" s="3" t="n">
         <v>2020</v>
@@ -7693,21 +7487,21 @@
         <v>1</v>
       </c>
       <c r="G210" s="3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="M210" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C211" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D211" s="3" t="n">
         <v>2021</v>
@@ -7719,21 +7513,21 @@
         <v>1</v>
       </c>
       <c r="G211" s="3" t="n">
-        <v>12.75</v>
+        <v>12</v>
       </c>
       <c r="M211" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C212" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D212" s="3" t="n">
         <v>2022</v>
@@ -7745,208 +7539,12 @@
         <v>1</v>
       </c>
       <c r="G212" s="3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D213" s="3" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E213" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F213" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G213" s="3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M213" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D214" s="3" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E214" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F214" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G214" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="M214" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D215" s="3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E215" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F215" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G215" s="3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M215" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D216" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E216" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F216" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G216" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="M216" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D217" s="3" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E217" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F217" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G217" s="3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M217" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D218" s="3" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E218" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F218" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G218" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="M218" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D219" s="3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E219" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F219" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G219" s="3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="M219" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
